--- a/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem.xlsx
+++ b/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem.xlsx
@@ -1495,11 +1495,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1559,12 +1565,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5990,8 +5990,8 @@
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P50" sqref="P50:T50"/>
+      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6013,23 +6013,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -6037,21 +6037,21 @@
       <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -6059,21 +6059,21 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -6081,89 +6081,89 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="98" t="str">
+      <c r="A4" s="100" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99" t="str">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="100" t="str">
+      <c r="A5" s="102" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="99" t="str">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="101" t="str">
+      <c r="A6" s="103" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="99" t="str">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="101" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="102" t="str">
+      <c r="G6" s="101"/>
+      <c r="H6" s="104" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 202.400,00</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="103" t="str">
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="105" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 506</v>
       </c>
-      <c r="O6" s="103"/>
+      <c r="O6" s="105"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -6171,14 +6171,14 @@
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
@@ -6206,13 +6206,13 @@
       <c r="O7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="96" t="s">
+      <c r="P7" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
       <c r="A8" s="84" t="s">
@@ -6544,14 +6544,14 @@
       <c r="T14" s="77"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="18" t="s">
         <v>44</v>
       </c>
@@ -6591,14 +6591,14 @@
       <c r="T15" s="77"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="18" t="s">
         <v>48</v>
       </c>
@@ -6638,12 +6638,12 @@
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19" t="s">
         <v>37</v>
@@ -6677,14 +6677,14 @@
       <c r="T17" s="77"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="18" t="s">
         <v>36</v>
       </c>
@@ -6913,14 +6913,14 @@
       <c r="T22" s="77"/>
     </row>
     <row r="23" spans="1:20" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="93" t="s">
+      <c r="A23" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="18" t="s">
         <v>55</v>
       </c>
@@ -6960,12 +6960,12 @@
       <c r="T23" s="77"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19" t="s">
         <v>37</v>
@@ -6999,14 +6999,14 @@
       <c r="T24" s="77"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
       <c r="G25" s="18" t="s">
         <v>36</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="P25" s="77">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="Q25" s="77"/>
       <c r="R25" s="77"/>
@@ -7273,8 +7273,7 @@
         <v>3</v>
       </c>
       <c r="O30" s="23">
-        <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="77"/>
       <c r="Q30" s="77"/>
@@ -7320,8 +7319,7 @@
         <v>3</v>
       </c>
       <c r="O31" s="23">
-        <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31" s="77"/>
       <c r="Q31" s="77"/>
@@ -7367,8 +7365,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="23">
-        <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" s="77"/>
       <c r="Q32" s="77"/>
@@ -7414,8 +7411,7 @@
         <v>3</v>
       </c>
       <c r="O33" s="23">
-        <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P33" s="77"/>
       <c r="Q33" s="77"/>
@@ -7461,8 +7457,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="23">
-        <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34" s="77"/>
       <c r="Q34" s="77"/>
@@ -7508,8 +7503,7 @@
         <v>3</v>
       </c>
       <c r="O35" s="23">
-        <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P35" s="77"/>
       <c r="Q35" s="77"/>
@@ -7557,14 +7551,14 @@
       <c r="T36" s="77"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="18" t="s">
         <v>36</v>
       </c>
@@ -7597,7 +7591,9 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P37" s="77"/>
+      <c r="P37" s="77">
+        <v>20</v>
+      </c>
       <c r="Q37" s="77"/>
       <c r="R37" s="77"/>
       <c r="S37" s="77"/>
@@ -8105,14 +8101,14 @@
       <c r="T48" s="77"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="116"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
       <c r="G49" s="18" t="s">
         <v>36</v>
       </c>
@@ -13418,88 +13414,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="112" t="str">
+      <c r="A4" s="114" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113" t="str">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="114" t="str">
+      <c r="A5" s="116" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="113" t="str">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="115" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="29" t="str">
@@ -13510,58 +13506,58 @@
       <c r="C6" s="30"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="105" t="str">
+      <c r="F6" s="107" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105" t="str">
+      <c r="G6" s="107"/>
+      <c r="H6" s="107" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 202.400,00</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="106" t="str">
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 506</v>
       </c>
-      <c r="L6" s="106"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="108" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="32"/>
@@ -14457,11 +14453,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="35"/>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
       <c r="E55" s="49">
         <f>SUMIF(Funções!$H$8:$H$144,"I",Funções!$N$8:$N$144)</f>
         <v>506</v>
@@ -14484,11 +14480,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
       <c r="E56" s="49">
         <f>SUMIF(Funções!$H$8:$H$144,"A",Funções!$N$8:$N$144)</f>
         <v>0</v>
@@ -14512,11 +14508,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="35"/>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
       <c r="E57" s="49">
         <f>SUMIF(Funções!$H$8:$H$144,"E",Funções!$N$8:$N$144)</f>
         <v>0</v>
@@ -14537,11 +14533,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="35"/>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
       <c r="E58" s="49">
         <f>SUMIF(Funções!$H$8:$H$144,"T",Funções!$N$8:$N$144)</f>
         <v>0</v>

--- a/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem.xlsx
+++ b/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem.xlsx
@@ -1881,6 +1881,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1889,105 +1922,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2010,17 +1944,110 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2040,38 +2067,20 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2091,17 +2100,8 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5046,36 +5046,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -5084,34 +5084,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -5121,34 +5121,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -5158,45 +5158,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="88" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="88"/>
+      <c r="S4" s="84"/>
       <c r="T4" s="3">
         <v>400</v>
       </c>
-      <c r="U4" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="96">
+      <c r="U4" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="84"/>
+      <c r="W4" s="85">
         <f>W5*T4</f>
         <v>182000</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -5206,41 +5206,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="88" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="88"/>
-      <c r="W5" s="85">
+      <c r="V5" s="84"/>
+      <c r="W5" s="87">
         <f>SUM(Y11:Y14)</f>
         <v>455</v>
       </c>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -5250,36 +5250,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -5289,38 +5289,38 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="89" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -5330,38 +5330,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="89" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -5407,46 +5407,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="90" t="s">
+      <c r="O10" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="88" t="s">
+      <c r="P10" s="92"/>
+      <c r="Q10" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88" t="s">
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88" t="s">
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -5456,46 +5456,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="86" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="89" t="s">
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="89"/>
-      <c r="S11" s="85">
+      <c r="R11" s="88"/>
+      <c r="S11" s="87">
         <f>Sumário!E55</f>
         <v>455</v>
       </c>
-      <c r="T11" s="85"/>
-      <c r="U11" s="84">
+      <c r="T11" s="87"/>
+      <c r="U11" s="90">
         <v>1</v>
       </c>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="85">
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="87">
         <f>S11*U11</f>
         <v>455</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -5505,46 +5505,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="86" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="87" t="s">
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="87"/>
-      <c r="S12" s="85">
+      <c r="R12" s="93"/>
+      <c r="S12" s="87">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="85"/>
-      <c r="U12" s="84">
+      <c r="T12" s="87"/>
+      <c r="U12" s="90">
         <v>1</v>
       </c>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="85">
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="87">
         <f>S12*U12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -5554,46 +5554,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86" t="s">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="87" t="s">
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="87"/>
-      <c r="S13" s="85">
+      <c r="R13" s="93"/>
+      <c r="S13" s="87">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="85"/>
-      <c r="U13" s="84">
+      <c r="T13" s="87"/>
+      <c r="U13" s="90">
         <v>1</v>
       </c>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85">
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="87">
         <f>S13*U13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -5603,8 +5603,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5617,26 +5617,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="85">
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="87">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="85"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="85">
+      <c r="T14" s="87"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="87">
         <f>S14*U14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -5696,17 +5696,17 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="81" t="s">
+      <c r="K16" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -5725,34 +5725,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -5762,34 +5762,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -5799,34 +5799,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -5836,34 +5836,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -5873,34 +5873,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -5910,34 +5910,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -5947,34 +5947,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -5984,34 +5984,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -6021,34 +6021,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -6058,34 +6058,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -6095,34 +6095,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -6132,34 +6132,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -6169,34 +6169,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -6206,34 +6206,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -6243,34 +6243,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -6280,34 +6280,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="82"/>
-      <c r="AB32" s="82"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -6317,34 +6317,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -6354,34 +6354,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="82"/>
-      <c r="AB34" s="82"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -6391,34 +6391,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -6428,34 +6428,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="95"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -6465,34 +6465,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="82"/>
-      <c r="V37" s="82"/>
-      <c r="W37" s="82"/>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="82"/>
-      <c r="Z37" s="82"/>
-      <c r="AA37" s="82"/>
-      <c r="AB37" s="82"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6502,34 +6502,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="82"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="82"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6586,17 +6586,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="81" t="s">
+      <c r="K40" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -6615,34 +6615,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -6652,34 +6652,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6689,34 +6689,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -6726,34 +6726,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="82"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6763,34 +6763,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -6800,34 +6800,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82"/>
-      <c r="Z46" s="82"/>
-      <c r="AA46" s="82"/>
-      <c r="AB46" s="82"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
+      <c r="AB46" s="95"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -6837,34 +6837,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="82"/>
-      <c r="Z47" s="82"/>
-      <c r="AA47" s="82"/>
-      <c r="AB47" s="82"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -6874,34 +6874,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="95"/>
+      <c r="V48" s="95"/>
+      <c r="W48" s="95"/>
+      <c r="X48" s="95"/>
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="95"/>
+      <c r="AA48" s="95"/>
+      <c r="AB48" s="95"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -6911,34 +6911,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="95"/>
+      <c r="U49" s="95"/>
+      <c r="V49" s="95"/>
+      <c r="W49" s="95"/>
+      <c r="X49" s="95"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="95"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -6948,34 +6948,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="95"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="95"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="95"/>
+      <c r="AA50" s="95"/>
+      <c r="AB50" s="95"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -6985,34 +6985,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="95"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7022,34 +7022,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="82"/>
-      <c r="AB52" s="82"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="95"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="95"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -7059,34 +7059,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="82"/>
-      <c r="Y53" s="82"/>
-      <c r="Z53" s="82"/>
-      <c r="AA53" s="82"/>
-      <c r="AB53" s="82"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="95"/>
+      <c r="T53" s="95"/>
+      <c r="U53" s="95"/>
+      <c r="V53" s="95"/>
+      <c r="W53" s="95"/>
+      <c r="X53" s="95"/>
+      <c r="Y53" s="95"/>
+      <c r="Z53" s="95"/>
+      <c r="AA53" s="95"/>
+      <c r="AB53" s="95"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -7096,34 +7096,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="82"/>
-      <c r="T54" s="82"/>
-      <c r="U54" s="82"/>
-      <c r="V54" s="82"/>
-      <c r="W54" s="82"/>
-      <c r="X54" s="82"/>
-      <c r="Y54" s="82"/>
-      <c r="Z54" s="82"/>
-      <c r="AA54" s="82"/>
-      <c r="AB54" s="82"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
+      <c r="W54" s="95"/>
+      <c r="X54" s="95"/>
+      <c r="Y54" s="95"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7133,34 +7133,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="82"/>
-      <c r="V55" s="82"/>
-      <c r="W55" s="82"/>
-      <c r="X55" s="82"/>
-      <c r="Y55" s="82"/>
-      <c r="Z55" s="82"/>
-      <c r="AA55" s="82"/>
-      <c r="AB55" s="82"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="95"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="95"/>
+      <c r="W55" s="95"/>
+      <c r="X55" s="95"/>
+      <c r="Y55" s="95"/>
+      <c r="Z55" s="95"/>
+      <c r="AA55" s="95"/>
+      <c r="AB55" s="95"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -7170,34 +7170,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="82"/>
-      <c r="V56" s="82"/>
-      <c r="W56" s="82"/>
-      <c r="X56" s="82"/>
-      <c r="Y56" s="82"/>
-      <c r="Z56" s="82"/>
-      <c r="AA56" s="82"/>
-      <c r="AB56" s="82"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+      <c r="O56" s="95"/>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="95"/>
+      <c r="R56" s="95"/>
+      <c r="S56" s="95"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="95"/>
+      <c r="V56" s="95"/>
+      <c r="W56" s="95"/>
+      <c r="X56" s="95"/>
+      <c r="Y56" s="95"/>
+      <c r="Z56" s="95"/>
+      <c r="AA56" s="95"/>
+      <c r="AB56" s="95"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -7207,34 +7207,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="82"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
-      <c r="Y57" s="82"/>
-      <c r="Z57" s="82"/>
-      <c r="AA57" s="82"/>
-      <c r="AB57" s="82"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
+      <c r="X57" s="95"/>
+      <c r="Y57" s="95"/>
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="95"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -7244,34 +7244,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-      <c r="Q58" s="82"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="82"/>
-      <c r="T58" s="82"/>
-      <c r="U58" s="82"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
-      <c r="X58" s="82"/>
-      <c r="Y58" s="82"/>
-      <c r="Z58" s="82"/>
-      <c r="AA58" s="82"/>
-      <c r="AB58" s="82"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="95"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="95"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="95"/>
+      <c r="U58" s="95"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
+      <c r="X58" s="95"/>
+      <c r="Y58" s="95"/>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="95"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -7281,34 +7281,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="82"/>
-      <c r="U59" s="82"/>
-      <c r="V59" s="82"/>
-      <c r="W59" s="82"/>
-      <c r="X59" s="82"/>
-      <c r="Y59" s="82"/>
-      <c r="Z59" s="82"/>
-      <c r="AA59" s="82"/>
-      <c r="AB59" s="82"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="95"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="95"/>
+      <c r="V59" s="95"/>
+      <c r="W59" s="95"/>
+      <c r="X59" s="95"/>
+      <c r="Y59" s="95"/>
+      <c r="Z59" s="95"/>
+      <c r="AA59" s="95"/>
+      <c r="AB59" s="95"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -7318,34 +7318,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="82"/>
-      <c r="U60" s="82"/>
-      <c r="V60" s="82"/>
-      <c r="W60" s="82"/>
-      <c r="X60" s="82"/>
-      <c r="Y60" s="82"/>
-      <c r="Z60" s="82"/>
-      <c r="AA60" s="82"/>
-      <c r="AB60" s="82"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="95"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="95"/>
+      <c r="T60" s="95"/>
+      <c r="U60" s="95"/>
+      <c r="V60" s="95"/>
+      <c r="W60" s="95"/>
+      <c r="X60" s="95"/>
+      <c r="Y60" s="95"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="95"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -7356,39 +7356,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:AB14"/>
     <mergeCell ref="K16:S16"/>
     <mergeCell ref="A17:AB38"/>
     <mergeCell ref="K40:S40"/>
@@ -7405,6 +7372,39 @@
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7419,7 +7419,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N87" sqref="N87:N92"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7441,23 +7441,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -7465,21 +7465,21 @@
       <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -7487,21 +7487,21 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -7509,89 +7509,89 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="120" t="str">
+      <c r="A4" s="98" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121" t="str">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="122" t="str">
+      <c r="A5" s="100" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="121" t="str">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="99" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="123" t="str">
+      <c r="A6" s="101" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="121" t="str">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="99" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="121"/>
-      <c r="H6" s="124" t="str">
+      <c r="G6" s="99"/>
+      <c r="H6" s="102" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 182.000,00</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="125" t="str">
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="103" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 455</v>
       </c>
-      <c r="O6" s="125"/>
+      <c r="O6" s="103"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -7599,14 +7599,14 @@
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
@@ -7634,23 +7634,23 @@
       <c r="O7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="118" t="s">
+      <c r="P7" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="18" t="s">
         <v>36</v>
       </c>
@@ -7683,21 +7683,21 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
@@ -7730,21 +7730,21 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="18" t="s">
         <v>39</v>
       </c>
@@ -7777,21 +7777,21 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="18" t="s">
         <v>39</v>
       </c>
@@ -7824,21 +7824,21 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="18" t="s">
         <v>39</v>
       </c>
@@ -7871,21 +7871,21 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
       <c r="G13" s="18" t="s">
         <v>44</v>
       </c>
@@ -7918,21 +7918,21 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="18" t="s">
         <v>39</v>
       </c>
@@ -7965,21 +7965,21 @@
         <f>IF(H14="I",N14*Contagem!$U$11,IF(H14="E",N14*Contagem!$U$13,IF(H14="A",N14*Contagem!$U$12,IF(H14="T",N14*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="18" t="s">
         <v>44</v>
       </c>
@@ -8012,21 +8012,21 @@
         <f>IF(H15="I",N15*Contagem!$U$11,IF(H15="E",N15*Contagem!$U$13,IF(H15="A",N15*Contagem!$U$12,IF(H15="T",N15*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="18" t="s">
         <v>48</v>
       </c>
@@ -8066,12 +8066,12 @@
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19" t="s">
         <v>37</v>
@@ -8098,21 +8098,21 @@
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="18" t="s">
         <v>36</v>
       </c>
@@ -8144,21 +8144,21 @@
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
         <v>10</v>
       </c>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="18" t="s">
         <v>39</v>
       </c>
@@ -8191,21 +8191,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="18" t="s">
         <v>39</v>
       </c>
@@ -8238,21 +8238,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="18" t="s">
         <v>39</v>
       </c>
@@ -8285,21 +8285,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="18" t="s">
         <v>44</v>
       </c>
@@ -8332,21 +8332,21 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
     </row>
     <row r="23" spans="1:20" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
       <c r="G23" s="18" t="s">
         <v>55</v>
       </c>
@@ -8379,19 +8379,19 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19" t="s">
         <v>37</v>
@@ -8418,11 +8418,11 @@
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="107"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
       <c r="A25" s="113" t="s">
@@ -8465,21 +8465,21 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="18" t="s">
         <v>39</v>
       </c>
@@ -8512,21 +8512,21 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
-      <c r="A27" s="108" t="s">
+      <c r="A27" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="18" t="s">
         <v>39</v>
       </c>
@@ -8559,21 +8559,21 @@
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="107"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
       <c r="G28" s="18" t="s">
         <v>39</v>
       </c>
@@ -8606,21 +8606,21 @@
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
+      <c r="P28" s="107"/>
+      <c r="Q28" s="107"/>
+      <c r="R28" s="107"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="107"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="18" t="s">
         <v>44</v>
       </c>
@@ -8653,21 +8653,21 @@
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
       <c r="G30" s="18" t="s">
         <v>39</v>
       </c>
@@ -8699,21 +8699,21 @@
       <c r="O30" s="23">
         <v>0</v>
       </c>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
       <c r="G31" s="18" t="s">
         <v>39</v>
       </c>
@@ -8745,21 +8745,21 @@
       <c r="O31" s="23">
         <v>0</v>
       </c>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="107"/>
+      <c r="R31" s="107"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="107"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
       <c r="G32" s="18" t="s">
         <v>39</v>
       </c>
@@ -8791,21 +8791,21 @@
       <c r="O32" s="23">
         <v>0</v>
       </c>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="107"/>
+      <c r="R32" s="107"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="107"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
-      <c r="A33" s="97" t="s">
+      <c r="A33" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
       <c r="G33" s="18" t="s">
         <v>39</v>
       </c>
@@ -8837,21 +8837,21 @@
       <c r="O33" s="23">
         <v>0</v>
       </c>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
       <c r="G34" s="18" t="s">
         <v>44</v>
       </c>
@@ -8883,21 +8883,21 @@
       <c r="O34" s="23">
         <v>0</v>
       </c>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="98"/>
-      <c r="T34" s="98"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
       <c r="G35" s="18" t="s">
         <v>44</v>
       </c>
@@ -8929,19 +8929,19 @@
       <c r="O35" s="23">
         <v>0</v>
       </c>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="107"/>
+      <c r="S35" s="107"/>
+      <c r="T35" s="107"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="97"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
       <c r="G36" s="18"/>
       <c r="H36" s="19" t="s">
         <v>37</v>
@@ -8968,21 +8968,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="98"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="98"/>
-      <c r="T36" s="98"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="107"/>
+      <c r="R36" s="107"/>
+      <c r="S36" s="107"/>
+      <c r="T36" s="107"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
       <c r="G37" s="18" t="s">
         <v>36</v>
       </c>
@@ -9015,21 +9015,21 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="98"/>
-      <c r="R37" s="98"/>
-      <c r="S37" s="98"/>
-      <c r="T37" s="98"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="18" t="s">
         <v>39</v>
       </c>
@@ -9062,21 +9062,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="98"/>
-      <c r="T38" s="98"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="18" t="s">
         <v>39</v>
       </c>
@@ -9109,21 +9109,21 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="98"/>
-      <c r="T39" s="98"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="18" t="s">
         <v>39</v>
       </c>
@@ -9156,21 +9156,21 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="98"/>
-      <c r="S40" s="98"/>
-      <c r="T40" s="98"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="18" t="s">
         <v>44</v>
       </c>
@@ -9203,19 +9203,19 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="98"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
       <c r="G42" s="18"/>
       <c r="H42" s="19" t="s">
         <v>37</v>
@@ -9242,11 +9242,11 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="98"/>
-      <c r="S42" s="98"/>
-      <c r="T42" s="98"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="113" t="s">
@@ -9289,21 +9289,21 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="98"/>
-      <c r="R43" s="98"/>
-      <c r="S43" s="98"/>
-      <c r="T43" s="98"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="107"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="18" t="s">
         <v>39</v>
       </c>
@@ -9336,21 +9336,21 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="98"/>
-      <c r="S44" s="98"/>
-      <c r="T44" s="98"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="107"/>
+      <c r="R44" s="107"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="107"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
       <c r="G45" s="18" t="s">
         <v>39</v>
       </c>
@@ -9383,21 +9383,21 @@
         <f>IF(H45="I",N45*Contagem!$U$11,IF(H45="E",N45*Contagem!$U$13,IF(H45="A",N45*Contagem!$U$12,IF(H45="T",N45*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="18" t="s">
         <v>39</v>
       </c>
@@ -9430,21 +9430,21 @@
         <f>IF(H46="I",N46*Contagem!$U$11,IF(H46="E",N46*Contagem!$U$13,IF(H46="A",N46*Contagem!$U$12,IF(H46="T",N46*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="107"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="18" t="s">
         <v>44</v>
       </c>
@@ -9477,21 +9477,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P47" s="98"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="98"/>
-      <c r="S47" s="98"/>
-      <c r="T47" s="98"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="107"/>
+      <c r="R47" s="107"/>
+      <c r="S47" s="107"/>
+      <c r="T47" s="107"/>
     </row>
     <row r="48" spans="1:20" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="18" t="s">
         <v>55</v>
       </c>
@@ -9524,19 +9524,19 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P48" s="98"/>
-      <c r="Q48" s="98"/>
-      <c r="R48" s="98"/>
-      <c r="S48" s="98"/>
-      <c r="T48" s="98"/>
+      <c r="P48" s="107"/>
+      <c r="Q48" s="107"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="107"/>
+      <c r="T48" s="107"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="97"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
       <c r="G49" s="18"/>
       <c r="H49" s="19" t="s">
         <v>37</v>
@@ -9563,21 +9563,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P49" s="98"/>
-      <c r="Q49" s="98"/>
-      <c r="R49" s="98"/>
-      <c r="S49" s="98"/>
-      <c r="T49" s="98"/>
+      <c r="P49" s="107"/>
+      <c r="Q49" s="107"/>
+      <c r="R49" s="107"/>
+      <c r="S49" s="107"/>
+      <c r="T49" s="107"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
       <c r="G50" s="18" t="s">
         <v>36</v>
       </c>
@@ -9610,21 +9610,21 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P50" s="98"/>
-      <c r="Q50" s="98"/>
-      <c r="R50" s="98"/>
-      <c r="S50" s="98"/>
-      <c r="T50" s="98"/>
+      <c r="P50" s="107"/>
+      <c r="Q50" s="107"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="107"/>
+      <c r="T50" s="107"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
       <c r="G51" s="18" t="s">
         <v>39</v>
       </c>
@@ -9657,21 +9657,21 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P51" s="98"/>
-      <c r="Q51" s="98"/>
-      <c r="R51" s="98"/>
-      <c r="S51" s="98"/>
-      <c r="T51" s="98"/>
+      <c r="P51" s="107"/>
+      <c r="Q51" s="107"/>
+      <c r="R51" s="107"/>
+      <c r="S51" s="107"/>
+      <c r="T51" s="107"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="18" t="s">
         <v>39</v>
       </c>
@@ -9704,21 +9704,21 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P52" s="98"/>
-      <c r="Q52" s="98"/>
-      <c r="R52" s="98"/>
-      <c r="S52" s="98"/>
-      <c r="T52" s="98"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="107"/>
+      <c r="R52" s="107"/>
+      <c r="S52" s="107"/>
+      <c r="T52" s="107"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="18" t="s">
         <v>39</v>
       </c>
@@ -9751,21 +9751,21 @@
         <f>IF(H53="I",N53*Contagem!$U$11,IF(H53="E",N53*Contagem!$U$13,IF(H53="A",N53*Contagem!$U$12,IF(H53="T",N53*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="98"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="98"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="107"/>
+      <c r="T53" s="107"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
       <c r="G54" s="18" t="s">
         <v>44</v>
       </c>
@@ -9798,19 +9798,19 @@
         <f>IF(H54="I",N54*Contagem!$U$11,IF(H54="E",N54*Contagem!$U$13,IF(H54="A",N54*Contagem!$U$12,IF(H54="T",N54*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P54" s="98"/>
-      <c r="Q54" s="98"/>
-      <c r="R54" s="98"/>
-      <c r="S54" s="98"/>
-      <c r="T54" s="98"/>
+      <c r="P54" s="107"/>
+      <c r="Q54" s="107"/>
+      <c r="R54" s="107"/>
+      <c r="S54" s="107"/>
+      <c r="T54" s="107"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="97"/>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
       <c r="G55" s="18"/>
       <c r="H55" s="19" t="s">
         <v>37</v>
@@ -9837,21 +9837,21 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P55" s="98"/>
-      <c r="Q55" s="98"/>
-      <c r="R55" s="98"/>
-      <c r="S55" s="98"/>
-      <c r="T55" s="98"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="107"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="99" t="s">
+      <c r="A56" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
       <c r="G56" s="18" t="s">
         <v>36</v>
       </c>
@@ -9884,21 +9884,21 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P56" s="98"/>
-      <c r="Q56" s="98"/>
-      <c r="R56" s="98"/>
-      <c r="S56" s="98"/>
-      <c r="T56" s="98"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="107"/>
+      <c r="R56" s="107"/>
+      <c r="S56" s="107"/>
+      <c r="T56" s="107"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="108" t="s">
+      <c r="A57" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="108"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="18" t="s">
         <v>39</v>
       </c>
@@ -9931,21 +9931,21 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P57" s="98"/>
-      <c r="Q57" s="98"/>
-      <c r="R57" s="98"/>
-      <c r="S57" s="98"/>
-      <c r="T57" s="98"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="107"/>
+      <c r="R57" s="107"/>
+      <c r="S57" s="107"/>
+      <c r="T57" s="107"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="18" t="s">
         <v>39</v>
       </c>
@@ -9978,21 +9978,21 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P58" s="98"/>
-      <c r="Q58" s="98"/>
-      <c r="R58" s="98"/>
-      <c r="S58" s="98"/>
-      <c r="T58" s="98"/>
+      <c r="P58" s="107"/>
+      <c r="Q58" s="107"/>
+      <c r="R58" s="107"/>
+      <c r="S58" s="107"/>
+      <c r="T58" s="107"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="18" t="s">
         <v>39</v>
       </c>
@@ -10025,21 +10025,21 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
+      <c r="P59" s="107"/>
+      <c r="Q59" s="107"/>
+      <c r="R59" s="107"/>
+      <c r="S59" s="107"/>
+      <c r="T59" s="107"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="108"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
       <c r="G60" s="18" t="s">
         <v>44</v>
       </c>
@@ -10072,19 +10072,19 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P60" s="98"/>
-      <c r="Q60" s="98"/>
-      <c r="R60" s="98"/>
-      <c r="S60" s="98"/>
-      <c r="T60" s="98"/>
+      <c r="P60" s="107"/>
+      <c r="Q60" s="107"/>
+      <c r="R60" s="107"/>
+      <c r="S60" s="107"/>
+      <c r="T60" s="107"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="97"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
       <c r="G61" s="18"/>
       <c r="H61" s="19" t="s">
         <v>37</v>
@@ -10111,21 +10111,21 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P61" s="98"/>
-      <c r="Q61" s="98"/>
-      <c r="R61" s="98"/>
-      <c r="S61" s="98"/>
-      <c r="T61" s="98"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="107"/>
+      <c r="T61" s="107"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="112" t="s">
+      <c r="A62" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
       <c r="G62" s="18" t="s">
         <v>36</v>
       </c>
@@ -10158,23 +10158,23 @@
         <f>IF(H62="I",N62*Contagem!$U$11,IF(H62="E",N62*Contagem!$U$13,IF(H62="A",N62*Contagem!$U$12,IF(H62="T",N62*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P62" s="98">
+      <c r="P62" s="107">
         <v>19</v>
       </c>
-      <c r="Q62" s="98"/>
-      <c r="R62" s="98"/>
-      <c r="S62" s="98"/>
-      <c r="T62" s="98"/>
+      <c r="Q62" s="107"/>
+      <c r="R62" s="107"/>
+      <c r="S62" s="107"/>
+      <c r="T62" s="107"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
       <c r="G63" s="18" t="s">
         <v>39</v>
       </c>
@@ -10207,21 +10207,21 @@
         <f>IF(H63="I",N63*Contagem!$U$11,IF(H63="E",N63*Contagem!$U$13,IF(H63="A",N63*Contagem!$U$12,IF(H63="T",N63*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P63" s="98"/>
-      <c r="Q63" s="98"/>
-      <c r="R63" s="98"/>
-      <c r="S63" s="98"/>
-      <c r="T63" s="98"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="107"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="108" t="s">
+      <c r="A64" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="108"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="18" t="s">
         <v>39</v>
       </c>
@@ -10254,21 +10254,21 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P64" s="98"/>
-      <c r="Q64" s="98"/>
-      <c r="R64" s="98"/>
-      <c r="S64" s="98"/>
-      <c r="T64" s="98"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="107"/>
+      <c r="T64" s="107"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
-      <c r="A65" s="108" t="s">
+      <c r="A65" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="18" t="s">
         <v>39</v>
       </c>
@@ -10301,21 +10301,21 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P65" s="98"/>
-      <c r="Q65" s="98"/>
-      <c r="R65" s="98"/>
-      <c r="S65" s="98"/>
-      <c r="T65" s="98"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="107"/>
+      <c r="T65" s="107"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
-      <c r="A66" s="108" t="s">
+      <c r="A66" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="108"/>
-      <c r="C66" s="108"/>
-      <c r="D66" s="108"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="108"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
       <c r="G66" s="18" t="s">
         <v>44</v>
       </c>
@@ -10348,19 +10348,19 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="98"/>
-      <c r="R66" s="98"/>
-      <c r="S66" s="98"/>
-      <c r="T66" s="98"/>
+      <c r="P66" s="107"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
+      <c r="T66" s="107"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="97"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
       <c r="G67" s="18"/>
       <c r="H67" s="19" t="s">
         <v>37</v>
@@ -10387,19 +10387,19 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P67" s="98"/>
-      <c r="Q67" s="98"/>
-      <c r="R67" s="98"/>
-      <c r="S67" s="98"/>
-      <c r="T67" s="98"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="107"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="97"/>
-      <c r="B68" s="97"/>
-      <c r="C68" s="97"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
       <c r="G68" s="18"/>
       <c r="H68" s="19" t="s">
         <v>37</v>
@@ -10426,21 +10426,21 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P68" s="98"/>
-      <c r="Q68" s="98"/>
-      <c r="R68" s="98"/>
-      <c r="S68" s="98"/>
-      <c r="T68" s="98"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
+      <c r="T68" s="107"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="112"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
       <c r="G69" s="18" t="s">
         <v>36</v>
       </c>
@@ -10473,23 +10473,23 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P69" s="98">
+      <c r="P69" s="107">
         <v>18</v>
       </c>
-      <c r="Q69" s="98"/>
-      <c r="R69" s="98"/>
-      <c r="S69" s="98"/>
-      <c r="T69" s="98"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
+      <c r="T69" s="107"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B70" s="108"/>
-      <c r="C70" s="108"/>
-      <c r="D70" s="108"/>
-      <c r="E70" s="108"/>
-      <c r="F70" s="108"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="111"/>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
       <c r="G70" s="18" t="s">
         <v>39</v>
       </c>
@@ -10522,21 +10522,21 @@
         <f>IF(H70="I",N70*Contagem!$U$11,IF(H70="E",N70*Contagem!$U$13,IF(H70="A",N70*Contagem!$U$12,IF(H70="T",N70*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P70" s="98"/>
-      <c r="Q70" s="98"/>
-      <c r="R70" s="98"/>
-      <c r="S70" s="98"/>
-      <c r="T70" s="98"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="107"/>
+      <c r="S70" s="107"/>
+      <c r="T70" s="107"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B71" s="108"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="108"/>
-      <c r="F71" s="108"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
       <c r="G71" s="18" t="s">
         <v>39</v>
       </c>
@@ -10569,21 +10569,21 @@
         <f>IF(H71="I",N71*Contagem!$U$11,IF(H71="E",N71*Contagem!$U$13,IF(H71="A",N71*Contagem!$U$12,IF(H71="T",N71*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P71" s="98"/>
-      <c r="Q71" s="98"/>
-      <c r="R71" s="98"/>
-      <c r="S71" s="98"/>
-      <c r="T71" s="98"/>
+      <c r="P71" s="107"/>
+      <c r="Q71" s="107"/>
+      <c r="R71" s="107"/>
+      <c r="S71" s="107"/>
+      <c r="T71" s="107"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
       <c r="G72" s="18" t="s">
         <v>39</v>
       </c>
@@ -10616,19 +10616,19 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="98"/>
-      <c r="S72" s="98"/>
-      <c r="T72" s="98"/>
+      <c r="P72" s="107"/>
+      <c r="Q72" s="107"/>
+      <c r="R72" s="107"/>
+      <c r="S72" s="107"/>
+      <c r="T72" s="107"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
-      <c r="A73" s="97"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
       <c r="G73" s="18"/>
       <c r="H73" s="19" t="s">
         <v>37</v>
@@ -10655,21 +10655,21 @@
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P73" s="98"/>
-      <c r="Q73" s="98"/>
-      <c r="R73" s="98"/>
-      <c r="S73" s="98"/>
-      <c r="T73" s="98"/>
+      <c r="P73" s="107"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107"/>
+      <c r="S73" s="107"/>
+      <c r="T73" s="107"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
-      <c r="A74" s="112" t="s">
+      <c r="A74" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="112"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
-      <c r="F74" s="112"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="114"/>
       <c r="G74" s="18" t="s">
         <v>36</v>
       </c>
@@ -10702,23 +10702,23 @@
         <f>IF(H74="I",N74*Contagem!$U$11,IF(H74="E",N74*Contagem!$U$13,IF(H74="A",N74*Contagem!$U$12,IF(H74="T",N74*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P74" s="98">
+      <c r="P74" s="107">
         <v>22</v>
       </c>
-      <c r="Q74" s="98"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="98"/>
-      <c r="T74" s="98"/>
+      <c r="Q74" s="107"/>
+      <c r="R74" s="107"/>
+      <c r="S74" s="107"/>
+      <c r="T74" s="107"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="108" t="s">
+      <c r="A75" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="108"/>
-      <c r="C75" s="108"/>
-      <c r="D75" s="108"/>
-      <c r="E75" s="108"/>
-      <c r="F75" s="108"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
       <c r="G75" s="18" t="s">
         <v>39</v>
       </c>
@@ -10751,21 +10751,21 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P75" s="98"/>
-      <c r="Q75" s="98"/>
-      <c r="R75" s="98"/>
-      <c r="S75" s="98"/>
-      <c r="T75" s="98"/>
+      <c r="P75" s="107"/>
+      <c r="Q75" s="107"/>
+      <c r="R75" s="107"/>
+      <c r="S75" s="107"/>
+      <c r="T75" s="107"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
-      <c r="A76" s="108" t="s">
+      <c r="A76" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="108"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="108"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
       <c r="G76" s="18" t="s">
         <v>39</v>
       </c>
@@ -10798,21 +10798,21 @@
         <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
-      <c r="R76" s="98"/>
-      <c r="S76" s="98"/>
-      <c r="T76" s="98"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="107"/>
+      <c r="T76" s="107"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
-      <c r="A77" s="108" t="s">
+      <c r="A77" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="108"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
       <c r="G77" s="18" t="s">
         <v>39</v>
       </c>
@@ -10845,21 +10845,21 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P77" s="98"/>
-      <c r="Q77" s="98"/>
-      <c r="R77" s="98"/>
-      <c r="S77" s="98"/>
-      <c r="T77" s="98"/>
+      <c r="P77" s="107"/>
+      <c r="Q77" s="107"/>
+      <c r="R77" s="107"/>
+      <c r="S77" s="107"/>
+      <c r="T77" s="107"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="97" t="s">
+      <c r="A78" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
       <c r="G78" s="18" t="s">
         <v>44</v>
       </c>
@@ -10892,19 +10892,19 @@
         <f>IF(H78="I",N78*Contagem!$U$11,IF(H78="E",N78*Contagem!$U$13,IF(H78="A",N78*Contagem!$U$12,IF(H78="T",N78*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P78" s="98"/>
-      <c r="Q78" s="98"/>
-      <c r="R78" s="98"/>
-      <c r="S78" s="98"/>
-      <c r="T78" s="98"/>
+      <c r="P78" s="107"/>
+      <c r="Q78" s="107"/>
+      <c r="R78" s="107"/>
+      <c r="S78" s="107"/>
+      <c r="T78" s="107"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="97"/>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="108"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="108"/>
       <c r="G79" s="18"/>
       <c r="H79" s="19" t="s">
         <v>37</v>
@@ -10931,21 +10931,21 @@
         <f>IF(H79="I",N79*Contagem!$U$11,IF(H79="E",N79*Contagem!$U$13,IF(H79="A",N79*Contagem!$U$12,IF(H79="T",N79*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P79" s="98"/>
-      <c r="Q79" s="98"/>
-      <c r="R79" s="98"/>
-      <c r="S79" s="98"/>
-      <c r="T79" s="98"/>
+      <c r="P79" s="107"/>
+      <c r="Q79" s="107"/>
+      <c r="R79" s="107"/>
+      <c r="S79" s="107"/>
+      <c r="T79" s="107"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="112" t="s">
+      <c r="A80" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="112"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
-      <c r="F80" s="112"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
       <c r="G80" s="18" t="s">
         <v>36</v>
       </c>
@@ -10978,21 +10978,21 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P80" s="98"/>
-      <c r="Q80" s="98"/>
-      <c r="R80" s="98"/>
-      <c r="S80" s="98"/>
-      <c r="T80" s="98"/>
+      <c r="P80" s="107"/>
+      <c r="Q80" s="107"/>
+      <c r="R80" s="107"/>
+      <c r="S80" s="107"/>
+      <c r="T80" s="107"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="108" t="s">
+      <c r="A81" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="108"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108"/>
+      <c r="B81" s="111"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="111"/>
       <c r="G81" s="18" t="s">
         <v>39</v>
       </c>
@@ -11025,21 +11025,21 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P81" s="98"/>
-      <c r="Q81" s="98"/>
-      <c r="R81" s="98"/>
-      <c r="S81" s="98"/>
-      <c r="T81" s="98"/>
+      <c r="P81" s="107"/>
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
+      <c r="S81" s="107"/>
+      <c r="T81" s="107"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
       <c r="G82" s="18" t="s">
         <v>39</v>
       </c>
@@ -11072,21 +11072,21 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P82" s="98"/>
-      <c r="Q82" s="98"/>
-      <c r="R82" s="98"/>
-      <c r="S82" s="98"/>
-      <c r="T82" s="98"/>
+      <c r="P82" s="107"/>
+      <c r="Q82" s="107"/>
+      <c r="R82" s="107"/>
+      <c r="S82" s="107"/>
+      <c r="T82" s="107"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="108"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
+      <c r="B83" s="111"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="111"/>
+      <c r="F83" s="111"/>
       <c r="G83" s="18" t="s">
         <v>39</v>
       </c>
@@ -11119,21 +11119,21 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P83" s="98"/>
-      <c r="Q83" s="98"/>
-      <c r="R83" s="98"/>
-      <c r="S83" s="98"/>
-      <c r="T83" s="98"/>
+      <c r="P83" s="107"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
+      <c r="S83" s="107"/>
+      <c r="T83" s="107"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="97"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
       <c r="G84" s="18" t="s">
         <v>44</v>
       </c>
@@ -11166,21 +11166,21 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P84" s="98"/>
-      <c r="Q84" s="98"/>
-      <c r="R84" s="98"/>
-      <c r="S84" s="98"/>
-      <c r="T84" s="98"/>
+      <c r="P84" s="107"/>
+      <c r="Q84" s="107"/>
+      <c r="R84" s="107"/>
+      <c r="S84" s="107"/>
+      <c r="T84" s="107"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
-      <c r="A85" s="97" t="s">
+      <c r="A85" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97"/>
-      <c r="F85" s="97"/>
+      <c r="B85" s="108"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="108"/>
       <c r="G85" s="18" t="s">
         <v>39</v>
       </c>
@@ -11213,19 +11213,19 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P85" s="98"/>
-      <c r="Q85" s="98"/>
-      <c r="R85" s="98"/>
-      <c r="S85" s="98"/>
-      <c r="T85" s="98"/>
+      <c r="P85" s="107"/>
+      <c r="Q85" s="107"/>
+      <c r="R85" s="107"/>
+      <c r="S85" s="107"/>
+      <c r="T85" s="107"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="97"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="108"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108"/>
       <c r="G86" s="18"/>
       <c r="H86" s="19" t="s">
         <v>37</v>
@@ -11252,21 +11252,21 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P86" s="98"/>
-      <c r="Q86" s="98"/>
-      <c r="R86" s="98"/>
-      <c r="S86" s="98"/>
-      <c r="T86" s="98"/>
+      <c r="P86" s="107"/>
+      <c r="Q86" s="107"/>
+      <c r="R86" s="107"/>
+      <c r="S86" s="107"/>
+      <c r="T86" s="107"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="112" t="s">
+      <c r="A87" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="112"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
       <c r="G87" s="18" t="s">
         <v>36</v>
       </c>
@@ -11299,21 +11299,21 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P87" s="98"/>
-      <c r="Q87" s="98"/>
-      <c r="R87" s="98"/>
-      <c r="S87" s="98"/>
-      <c r="T87" s="98"/>
+      <c r="P87" s="107"/>
+      <c r="Q87" s="107"/>
+      <c r="R87" s="107"/>
+      <c r="S87" s="107"/>
+      <c r="T87" s="107"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="108"/>
-      <c r="C88" s="108"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
+      <c r="B88" s="111"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="111"/>
       <c r="G88" s="18" t="s">
         <v>39</v>
       </c>
@@ -11346,21 +11346,21 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P88" s="98"/>
-      <c r="Q88" s="98"/>
-      <c r="R88" s="98"/>
-      <c r="S88" s="98"/>
-      <c r="T88" s="98"/>
+      <c r="P88" s="107"/>
+      <c r="Q88" s="107"/>
+      <c r="R88" s="107"/>
+      <c r="S88" s="107"/>
+      <c r="T88" s="107"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
-      <c r="A89" s="108" t="s">
+      <c r="A89" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="108"/>
-      <c r="C89" s="108"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
+      <c r="B89" s="111"/>
+      <c r="C89" s="111"/>
+      <c r="D89" s="111"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="111"/>
       <c r="G89" s="18" t="s">
         <v>39</v>
       </c>
@@ -11393,21 +11393,21 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P89" s="98"/>
-      <c r="Q89" s="98"/>
-      <c r="R89" s="98"/>
-      <c r="S89" s="98"/>
-      <c r="T89" s="98"/>
+      <c r="P89" s="107"/>
+      <c r="Q89" s="107"/>
+      <c r="R89" s="107"/>
+      <c r="S89" s="107"/>
+      <c r="T89" s="107"/>
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
-      <c r="A90" s="108" t="s">
+      <c r="A90" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="108"/>
-      <c r="C90" s="108"/>
-      <c r="D90" s="108"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="108"/>
+      <c r="B90" s="111"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
       <c r="G90" s="18" t="s">
         <v>39</v>
       </c>
@@ -11440,21 +11440,21 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P90" s="98"/>
-      <c r="Q90" s="98"/>
-      <c r="R90" s="98"/>
-      <c r="S90" s="98"/>
-      <c r="T90" s="98"/>
+      <c r="P90" s="107"/>
+      <c r="Q90" s="107"/>
+      <c r="R90" s="107"/>
+      <c r="S90" s="107"/>
+      <c r="T90" s="107"/>
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
-      <c r="A91" s="97" t="s">
+      <c r="A91" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
       <c r="G91" s="18" t="s">
         <v>44</v>
       </c>
@@ -11487,21 +11487,21 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P91" s="98"/>
-      <c r="Q91" s="98"/>
-      <c r="R91" s="98"/>
-      <c r="S91" s="98"/>
-      <c r="T91" s="98"/>
+      <c r="P91" s="107"/>
+      <c r="Q91" s="107"/>
+      <c r="R91" s="107"/>
+      <c r="S91" s="107"/>
+      <c r="T91" s="107"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
-      <c r="A92" s="97" t="s">
+      <c r="A92" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="97"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="97"/>
-      <c r="F92" s="97"/>
+      <c r="B92" s="108"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="108"/>
       <c r="G92" s="18" t="s">
         <v>39</v>
       </c>
@@ -11534,19 +11534,19 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P92" s="98"/>
-      <c r="Q92" s="98"/>
-      <c r="R92" s="98"/>
-      <c r="S92" s="98"/>
-      <c r="T92" s="98"/>
+      <c r="P92" s="107"/>
+      <c r="Q92" s="107"/>
+      <c r="R92" s="107"/>
+      <c r="S92" s="107"/>
+      <c r="T92" s="107"/>
     </row>
     <row r="93" spans="1:20" s="28" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="97"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="97"/>
+      <c r="A93" s="108"/>
+      <c r="B93" s="108"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="108"/>
       <c r="G93" s="18"/>
       <c r="H93" s="19" t="s">
         <v>37</v>
@@ -11573,21 +11573,21 @@
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P93" s="98"/>
-      <c r="Q93" s="98"/>
-      <c r="R93" s="98"/>
-      <c r="S93" s="98"/>
-      <c r="T93" s="98"/>
+      <c r="P93" s="107"/>
+      <c r="Q93" s="107"/>
+      <c r="R93" s="107"/>
+      <c r="S93" s="107"/>
+      <c r="T93" s="107"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
-      <c r="F94" s="112"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="114"/>
       <c r="G94" s="18" t="s">
         <v>36</v>
       </c>
@@ -11620,23 +11620,23 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P94" s="98">
+      <c r="P94" s="107">
         <v>35</v>
       </c>
-      <c r="Q94" s="98"/>
-      <c r="R94" s="98"/>
-      <c r="S94" s="98"/>
-      <c r="T94" s="98"/>
+      <c r="Q94" s="107"/>
+      <c r="R94" s="107"/>
+      <c r="S94" s="107"/>
+      <c r="T94" s="107"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="108" t="s">
+      <c r="A95" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="108"/>
-      <c r="C95" s="108"/>
-      <c r="D95" s="108"/>
-      <c r="E95" s="108"/>
-      <c r="F95" s="108"/>
+      <c r="B95" s="111"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="111"/>
+      <c r="F95" s="111"/>
       <c r="G95" s="18" t="s">
         <v>39</v>
       </c>
@@ -11669,21 +11669,21 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P95" s="98"/>
-      <c r="Q95" s="98"/>
-      <c r="R95" s="98"/>
-      <c r="S95" s="98"/>
-      <c r="T95" s="98"/>
+      <c r="P95" s="107"/>
+      <c r="Q95" s="107"/>
+      <c r="R95" s="107"/>
+      <c r="S95" s="107"/>
+      <c r="T95" s="107"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
-      <c r="A96" s="108" t="s">
+      <c r="A96" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="108"/>
-      <c r="C96" s="108"/>
-      <c r="D96" s="108"/>
-      <c r="E96" s="108"/>
-      <c r="F96" s="108"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="111"/>
+      <c r="F96" s="111"/>
       <c r="G96" s="18" t="s">
         <v>39</v>
       </c>
@@ -11716,21 +11716,21 @@
         <f>IF(H96="I",N96*Contagem!$U$11,IF(H96="E",N96*Contagem!$U$13,IF(H96="A",N96*Contagem!$U$12,IF(H96="T",N96*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P96" s="98"/>
-      <c r="Q96" s="98"/>
-      <c r="R96" s="98"/>
-      <c r="S96" s="98"/>
-      <c r="T96" s="98"/>
+      <c r="P96" s="107"/>
+      <c r="Q96" s="107"/>
+      <c r="R96" s="107"/>
+      <c r="S96" s="107"/>
+      <c r="T96" s="107"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
-      <c r="A97" s="108" t="s">
+      <c r="A97" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="108"/>
-      <c r="C97" s="108"/>
-      <c r="D97" s="108"/>
-      <c r="E97" s="108"/>
-      <c r="F97" s="108"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="111"/>
       <c r="G97" s="18" t="s">
         <v>39</v>
       </c>
@@ -11763,21 +11763,21 @@
         <f>IF(H97="I",N97*Contagem!$U$11,IF(H97="E",N97*Contagem!$U$13,IF(H97="A",N97*Contagem!$U$12,IF(H97="T",N97*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P97" s="98"/>
-      <c r="Q97" s="98"/>
-      <c r="R97" s="98"/>
-      <c r="S97" s="98"/>
-      <c r="T97" s="98"/>
+      <c r="P97" s="107"/>
+      <c r="Q97" s="107"/>
+      <c r="R97" s="107"/>
+      <c r="S97" s="107"/>
+      <c r="T97" s="107"/>
     </row>
     <row r="98" spans="1:20" ht="18" customHeight="1">
-      <c r="A98" s="97" t="s">
+      <c r="A98" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="108"/>
       <c r="G98" s="18" t="s">
         <v>44</v>
       </c>
@@ -11810,21 +11810,21 @@
         <f>IF(H98="I",N98*Contagem!$U$11,IF(H98="E",N98*Contagem!$U$13,IF(H98="A",N98*Contagem!$U$12,IF(H98="T",N98*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P98" s="98"/>
-      <c r="Q98" s="98"/>
-      <c r="R98" s="98"/>
-      <c r="S98" s="98"/>
-      <c r="T98" s="98"/>
+      <c r="P98" s="107"/>
+      <c r="Q98" s="107"/>
+      <c r="R98" s="107"/>
+      <c r="S98" s="107"/>
+      <c r="T98" s="107"/>
     </row>
     <row r="99" spans="1:20" ht="18" customHeight="1">
-      <c r="A99" s="97" t="s">
+      <c r="A99" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="97"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="97"/>
+      <c r="B99" s="108"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
       <c r="G99" s="18" t="s">
         <v>39</v>
       </c>
@@ -11857,21 +11857,21 @@
         <f>IF(H99="I",N99*Contagem!$U$11,IF(H99="E",N99*Contagem!$U$13,IF(H99="A",N99*Contagem!$U$12,IF(H99="T",N99*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P99" s="98"/>
-      <c r="Q99" s="98"/>
-      <c r="R99" s="98"/>
-      <c r="S99" s="98"/>
-      <c r="T99" s="98"/>
+      <c r="P99" s="107"/>
+      <c r="Q99" s="107"/>
+      <c r="R99" s="107"/>
+      <c r="S99" s="107"/>
+      <c r="T99" s="107"/>
     </row>
     <row r="100" spans="1:20" ht="18" customHeight="1">
-      <c r="A100" s="97" t="s">
+      <c r="A100" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="97"/>
-      <c r="C100" s="97"/>
-      <c r="D100" s="97"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="97"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="108"/>
       <c r="G100" s="18" t="s">
         <v>39</v>
       </c>
@@ -11904,21 +11904,21 @@
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P100" s="98"/>
-      <c r="Q100" s="98"/>
-      <c r="R100" s="98"/>
-      <c r="S100" s="98"/>
-      <c r="T100" s="98"/>
+      <c r="P100" s="107"/>
+      <c r="Q100" s="107"/>
+      <c r="R100" s="107"/>
+      <c r="S100" s="107"/>
+      <c r="T100" s="107"/>
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
-      <c r="A101" s="97" t="s">
+      <c r="A101" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="97"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="97"/>
+      <c r="B101" s="108"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108"/>
       <c r="G101" s="18" t="s">
         <v>39</v>
       </c>
@@ -11951,19 +11951,19 @@
         <f>IF(H101="I",N101*Contagem!$U$11,IF(H101="E",N101*Contagem!$U$13,IF(H101="A",N101*Contagem!$U$12,IF(H101="T",N101*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P101" s="98"/>
-      <c r="Q101" s="98"/>
-      <c r="R101" s="98"/>
-      <c r="S101" s="98"/>
-      <c r="T101" s="98"/>
+      <c r="P101" s="107"/>
+      <c r="Q101" s="107"/>
+      <c r="R101" s="107"/>
+      <c r="S101" s="107"/>
+      <c r="T101" s="107"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
-      <c r="A102" s="105"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="107"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="116"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="117"/>
       <c r="G102" s="18"/>
       <c r="H102" s="19" t="s">
         <v>37</v>
@@ -11990,21 +11990,21 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P102" s="104"/>
-      <c r="Q102" s="98"/>
-      <c r="R102" s="98"/>
-      <c r="S102" s="98"/>
-      <c r="T102" s="98"/>
+      <c r="P102" s="118"/>
+      <c r="Q102" s="107"/>
+      <c r="R102" s="107"/>
+      <c r="S102" s="107"/>
+      <c r="T102" s="107"/>
     </row>
     <row r="103" spans="1:20" ht="18" customHeight="1">
-      <c r="A103" s="109" t="s">
+      <c r="A103" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B103" s="110"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="110"/>
-      <c r="F103" s="111"/>
+      <c r="B103" s="120"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="121"/>
       <c r="G103" s="18" t="s">
         <v>36</v>
       </c>
@@ -12037,21 +12037,21 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P103" s="104"/>
-      <c r="Q103" s="98"/>
-      <c r="R103" s="98"/>
-      <c r="S103" s="98"/>
-      <c r="T103" s="98"/>
+      <c r="P103" s="118"/>
+      <c r="Q103" s="107"/>
+      <c r="R103" s="107"/>
+      <c r="S103" s="107"/>
+      <c r="T103" s="107"/>
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="106"/>
-      <c r="C104" s="106"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="107"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="117"/>
       <c r="G104" s="18" t="s">
         <v>39</v>
       </c>
@@ -12084,21 +12084,21 @@
         <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="98"/>
-      <c r="R104" s="98"/>
-      <c r="S104" s="98"/>
-      <c r="T104" s="98"/>
+      <c r="P104" s="118"/>
+      <c r="Q104" s="107"/>
+      <c r="R104" s="107"/>
+      <c r="S104" s="107"/>
+      <c r="T104" s="107"/>
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
-      <c r="A105" s="97" t="s">
+      <c r="A105" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="97"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
-      <c r="F105" s="97"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
       <c r="G105" s="18" t="s">
         <v>39</v>
       </c>
@@ -12131,21 +12131,21 @@
         <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P105" s="98"/>
-      <c r="Q105" s="98"/>
-      <c r="R105" s="98"/>
-      <c r="S105" s="98"/>
-      <c r="T105" s="98"/>
+      <c r="P105" s="107"/>
+      <c r="Q105" s="107"/>
+      <c r="R105" s="107"/>
+      <c r="S105" s="107"/>
+      <c r="T105" s="107"/>
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
-      <c r="A106" s="97" t="s">
+      <c r="A106" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108"/>
       <c r="G106" s="18" t="s">
         <v>39</v>
       </c>
@@ -12178,19 +12178,19 @@
         <f>IF(H106="I",N106*Contagem!$U$11,IF(H106="E",N106*Contagem!$U$13,IF(H106="A",N106*Contagem!$U$12,IF(H106="T",N106*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P106" s="98"/>
-      <c r="Q106" s="98"/>
-      <c r="R106" s="98"/>
-      <c r="S106" s="98"/>
-      <c r="T106" s="98"/>
+      <c r="P106" s="107"/>
+      <c r="Q106" s="107"/>
+      <c r="R106" s="107"/>
+      <c r="S106" s="107"/>
+      <c r="T106" s="107"/>
     </row>
     <row r="107" spans="1:20" ht="18" customHeight="1">
-      <c r="A107" s="97"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="97"/>
+      <c r="A107" s="108"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="108"/>
       <c r="G107" s="18"/>
       <c r="H107" s="19" t="s">
         <v>37</v>
@@ -12217,19 +12217,19 @@
         <f>IF(H107="I",N107*Contagem!$U$11,IF(H107="E",N107*Contagem!$U$13,IF(H107="A",N107*Contagem!$U$12,IF(H107="T",N107*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P107" s="98"/>
-      <c r="Q107" s="98"/>
-      <c r="R107" s="98"/>
-      <c r="S107" s="98"/>
-      <c r="T107" s="98"/>
+      <c r="P107" s="107"/>
+      <c r="Q107" s="107"/>
+      <c r="R107" s="107"/>
+      <c r="S107" s="107"/>
+      <c r="T107" s="107"/>
     </row>
     <row r="108" spans="1:20" ht="18" customHeight="1">
-      <c r="A108" s="105"/>
-      <c r="B108" s="106"/>
-      <c r="C108" s="106"/>
-      <c r="D108" s="106"/>
-      <c r="E108" s="106"/>
-      <c r="F108" s="107"/>
+      <c r="A108" s="115"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="116"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="117"/>
       <c r="G108" s="18"/>
       <c r="H108" s="19" t="s">
         <v>37</v>
@@ -12256,21 +12256,21 @@
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P108" s="104"/>
-      <c r="Q108" s="98"/>
-      <c r="R108" s="98"/>
-      <c r="S108" s="98"/>
-      <c r="T108" s="98"/>
+      <c r="P108" s="118"/>
+      <c r="Q108" s="107"/>
+      <c r="R108" s="107"/>
+      <c r="S108" s="107"/>
+      <c r="T108" s="107"/>
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
-      <c r="A109" s="101" t="s">
+      <c r="A109" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="B109" s="102"/>
-      <c r="C109" s="102"/>
-      <c r="D109" s="102"/>
-      <c r="E109" s="102"/>
-      <c r="F109" s="103"/>
+      <c r="B109" s="123"/>
+      <c r="C109" s="123"/>
+      <c r="D109" s="123"/>
+      <c r="E109" s="123"/>
+      <c r="F109" s="124"/>
       <c r="G109" s="18" t="s">
         <v>36</v>
       </c>
@@ -12303,21 +12303,21 @@
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P109" s="104"/>
-      <c r="Q109" s="98"/>
-      <c r="R109" s="98"/>
-      <c r="S109" s="98"/>
-      <c r="T109" s="98"/>
+      <c r="P109" s="118"/>
+      <c r="Q109" s="107"/>
+      <c r="R109" s="107"/>
+      <c r="S109" s="107"/>
+      <c r="T109" s="107"/>
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
-      <c r="A110" s="105" t="s">
+      <c r="A110" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="107"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="116"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="117"/>
       <c r="G110" s="18" t="s">
         <v>39</v>
       </c>
@@ -12350,21 +12350,21 @@
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P110" s="104"/>
-      <c r="Q110" s="98"/>
-      <c r="R110" s="98"/>
-      <c r="S110" s="98"/>
-      <c r="T110" s="98"/>
+      <c r="P110" s="118"/>
+      <c r="Q110" s="107"/>
+      <c r="R110" s="107"/>
+      <c r="S110" s="107"/>
+      <c r="T110" s="107"/>
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
-      <c r="A111" s="105" t="s">
+      <c r="A111" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B111" s="106"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="107"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="117"/>
       <c r="G111" s="18" t="s">
         <v>39</v>
       </c>
@@ -12397,21 +12397,21 @@
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P111" s="104"/>
-      <c r="Q111" s="98"/>
-      <c r="R111" s="98"/>
-      <c r="S111" s="98"/>
-      <c r="T111" s="98"/>
+      <c r="P111" s="118"/>
+      <c r="Q111" s="107"/>
+      <c r="R111" s="107"/>
+      <c r="S111" s="107"/>
+      <c r="T111" s="107"/>
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
-      <c r="A112" s="97" t="s">
+      <c r="A112" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B112" s="97"/>
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
-      <c r="F112" s="97"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="108"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="108"/>
       <c r="G112" s="18" t="s">
         <v>39</v>
       </c>
@@ -12444,21 +12444,21 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P112" s="98"/>
-      <c r="Q112" s="98"/>
-      <c r="R112" s="98"/>
-      <c r="S112" s="98"/>
-      <c r="T112" s="98"/>
+      <c r="P112" s="107"/>
+      <c r="Q112" s="107"/>
+      <c r="R112" s="107"/>
+      <c r="S112" s="107"/>
+      <c r="T112" s="107"/>
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
-      <c r="A113" s="97" t="s">
+      <c r="A113" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="B113" s="97"/>
-      <c r="C113" s="97"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="97"/>
-      <c r="F113" s="97"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="108"/>
       <c r="G113" s="18" t="s">
         <v>39</v>
       </c>
@@ -12491,19 +12491,19 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P113" s="98"/>
-      <c r="Q113" s="98"/>
-      <c r="R113" s="98"/>
-      <c r="S113" s="98"/>
-      <c r="T113" s="98"/>
+      <c r="P113" s="107"/>
+      <c r="Q113" s="107"/>
+      <c r="R113" s="107"/>
+      <c r="S113" s="107"/>
+      <c r="T113" s="107"/>
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
-      <c r="A114" s="97"/>
-      <c r="B114" s="97"/>
-      <c r="C114" s="97"/>
-      <c r="D114" s="97"/>
-      <c r="E114" s="97"/>
-      <c r="F114" s="97"/>
+      <c r="A114" s="108"/>
+      <c r="B114" s="108"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="108"/>
       <c r="G114" s="18"/>
       <c r="H114" s="19" t="s">
         <v>37</v>
@@ -12530,21 +12530,21 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P114" s="98"/>
-      <c r="Q114" s="98"/>
-      <c r="R114" s="98"/>
-      <c r="S114" s="98"/>
-      <c r="T114" s="98"/>
+      <c r="P114" s="107"/>
+      <c r="Q114" s="107"/>
+      <c r="R114" s="107"/>
+      <c r="S114" s="107"/>
+      <c r="T114" s="107"/>
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
-      <c r="A115" s="100" t="s">
+      <c r="A115" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="100"/>
-      <c r="C115" s="100"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="100"/>
+      <c r="B115" s="125"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
       <c r="G115" s="18" t="s">
         <v>36</v>
       </c>
@@ -12577,21 +12577,21 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P115" s="98"/>
-      <c r="Q115" s="98"/>
-      <c r="R115" s="98"/>
-      <c r="S115" s="98"/>
-      <c r="T115" s="98"/>
+      <c r="P115" s="107"/>
+      <c r="Q115" s="107"/>
+      <c r="R115" s="107"/>
+      <c r="S115" s="107"/>
+      <c r="T115" s="107"/>
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
-      <c r="A116" s="97" t="s">
+      <c r="A116" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="97"/>
-      <c r="C116" s="97"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="97"/>
-      <c r="F116" s="97"/>
+      <c r="B116" s="108"/>
+      <c r="C116" s="108"/>
+      <c r="D116" s="108"/>
+      <c r="E116" s="108"/>
+      <c r="F116" s="108"/>
       <c r="G116" s="18" t="s">
         <v>39</v>
       </c>
@@ -12624,21 +12624,21 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P116" s="98"/>
-      <c r="Q116" s="98"/>
-      <c r="R116" s="98"/>
-      <c r="S116" s="98"/>
-      <c r="T116" s="98"/>
+      <c r="P116" s="107"/>
+      <c r="Q116" s="107"/>
+      <c r="R116" s="107"/>
+      <c r="S116" s="107"/>
+      <c r="T116" s="107"/>
     </row>
     <row r="117" spans="1:20" ht="18" customHeight="1">
-      <c r="A117" s="97" t="s">
+      <c r="A117" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="97"/>
-      <c r="C117" s="97"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="97"/>
-      <c r="F117" s="97"/>
+      <c r="B117" s="108"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="108"/>
+      <c r="F117" s="108"/>
       <c r="G117" s="18" t="s">
         <v>39</v>
       </c>
@@ -12671,19 +12671,19 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P117" s="98"/>
-      <c r="Q117" s="98"/>
-      <c r="R117" s="98"/>
-      <c r="S117" s="98"/>
-      <c r="T117" s="98"/>
+      <c r="P117" s="107"/>
+      <c r="Q117" s="107"/>
+      <c r="R117" s="107"/>
+      <c r="S117" s="107"/>
+      <c r="T117" s="107"/>
     </row>
     <row r="118" spans="1:20" ht="18" customHeight="1">
-      <c r="A118" s="97"/>
-      <c r="B118" s="97"/>
-      <c r="C118" s="97"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
-      <c r="F118" s="97"/>
+      <c r="A118" s="108"/>
+      <c r="B118" s="108"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="108"/>
+      <c r="F118" s="108"/>
       <c r="G118" s="18"/>
       <c r="H118" s="19" t="s">
         <v>37</v>
@@ -12710,21 +12710,21 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P118" s="98"/>
-      <c r="Q118" s="98"/>
-      <c r="R118" s="98"/>
-      <c r="S118" s="98"/>
-      <c r="T118" s="98"/>
+      <c r="P118" s="107"/>
+      <c r="Q118" s="107"/>
+      <c r="R118" s="107"/>
+      <c r="S118" s="107"/>
+      <c r="T118" s="107"/>
     </row>
     <row r="119" spans="1:20" ht="18" customHeight="1">
-      <c r="A119" s="99" t="s">
+      <c r="A119" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="B119" s="99"/>
-      <c r="C119" s="99"/>
-      <c r="D119" s="99"/>
-      <c r="E119" s="99"/>
-      <c r="F119" s="99"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="106"/>
       <c r="G119" s="18"/>
       <c r="H119" s="19" t="s">
         <v>37</v>
@@ -12751,21 +12751,21 @@
         <f>IF(H119="I",N119*Contagem!$U$11,IF(H119="E",N119*Contagem!$U$13,IF(H119="A",N119*Contagem!$U$12,IF(H119="T",N119*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P119" s="98"/>
-      <c r="Q119" s="98"/>
-      <c r="R119" s="98"/>
-      <c r="S119" s="98"/>
-      <c r="T119" s="98"/>
+      <c r="P119" s="107"/>
+      <c r="Q119" s="107"/>
+      <c r="R119" s="107"/>
+      <c r="S119" s="107"/>
+      <c r="T119" s="107"/>
     </row>
     <row r="120" spans="1:20" ht="18" customHeight="1">
-      <c r="A120" s="97" t="s">
+      <c r="A120" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="B120" s="97"/>
-      <c r="C120" s="97"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="97"/>
-      <c r="F120" s="97"/>
+      <c r="B120" s="108"/>
+      <c r="C120" s="108"/>
+      <c r="D120" s="108"/>
+      <c r="E120" s="108"/>
+      <c r="F120" s="108"/>
       <c r="G120" s="18" t="s">
         <v>48</v>
       </c>
@@ -12798,21 +12798,21 @@
         <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P120" s="98"/>
-      <c r="Q120" s="98"/>
-      <c r="R120" s="98"/>
-      <c r="S120" s="98"/>
-      <c r="T120" s="98"/>
+      <c r="P120" s="107"/>
+      <c r="Q120" s="107"/>
+      <c r="R120" s="107"/>
+      <c r="S120" s="107"/>
+      <c r="T120" s="107"/>
     </row>
     <row r="121" spans="1:20" ht="18" customHeight="1">
-      <c r="A121" s="97" t="s">
+      <c r="A121" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="B121" s="97"/>
-      <c r="C121" s="97"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="97"/>
-      <c r="F121" s="97"/>
+      <c r="B121" s="108"/>
+      <c r="C121" s="108"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="108"/>
       <c r="G121" s="18" t="s">
         <v>48</v>
       </c>
@@ -12845,21 +12845,21 @@
         <f>IF(H121="I",N121*Contagem!$U$11,IF(H121="E",N121*Contagem!$U$13,IF(H121="A",N121*Contagem!$U$12,IF(H121="T",N121*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P121" s="98"/>
-      <c r="Q121" s="98"/>
-      <c r="R121" s="98"/>
-      <c r="S121" s="98"/>
-      <c r="T121" s="98"/>
+      <c r="P121" s="107"/>
+      <c r="Q121" s="107"/>
+      <c r="R121" s="107"/>
+      <c r="S121" s="107"/>
+      <c r="T121" s="107"/>
     </row>
     <row r="122" spans="1:20" ht="18" customHeight="1">
-      <c r="A122" s="97" t="s">
+      <c r="A122" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="B122" s="97"/>
-      <c r="C122" s="97"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="97"/>
-      <c r="F122" s="97"/>
+      <c r="B122" s="108"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="108"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="108"/>
       <c r="G122" s="18" t="s">
         <v>48</v>
       </c>
@@ -12892,21 +12892,21 @@
         <f>IF(H122="I",N122*Contagem!$U$11,IF(H122="E",N122*Contagem!$U$13,IF(H122="A",N122*Contagem!$U$12,IF(H122="T",N122*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P122" s="98"/>
-      <c r="Q122" s="98"/>
-      <c r="R122" s="98"/>
-      <c r="S122" s="98"/>
-      <c r="T122" s="98"/>
+      <c r="P122" s="107"/>
+      <c r="Q122" s="107"/>
+      <c r="R122" s="107"/>
+      <c r="S122" s="107"/>
+      <c r="T122" s="107"/>
     </row>
     <row r="123" spans="1:20" ht="18" customHeight="1">
-      <c r="A123" s="97" t="s">
+      <c r="A123" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="97"/>
-      <c r="C123" s="97"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="97"/>
-      <c r="F123" s="97"/>
+      <c r="B123" s="108"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="108"/>
+      <c r="E123" s="108"/>
+      <c r="F123" s="108"/>
       <c r="G123" s="18" t="s">
         <v>48</v>
       </c>
@@ -12939,21 +12939,21 @@
         <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P123" s="98"/>
-      <c r="Q123" s="98"/>
-      <c r="R123" s="98"/>
-      <c r="S123" s="98"/>
-      <c r="T123" s="98"/>
+      <c r="P123" s="107"/>
+      <c r="Q123" s="107"/>
+      <c r="R123" s="107"/>
+      <c r="S123" s="107"/>
+      <c r="T123" s="107"/>
     </row>
     <row r="124" spans="1:20" ht="18" customHeight="1">
-      <c r="A124" s="97" t="s">
+      <c r="A124" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="97"/>
-      <c r="C124" s="97"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="97"/>
-      <c r="F124" s="97"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="108"/>
+      <c r="F124" s="108"/>
       <c r="G124" s="18" t="s">
         <v>48</v>
       </c>
@@ -12986,21 +12986,21 @@
         <f>IF(H124="I",N124*Contagem!$U$11,IF(H124="E",N124*Contagem!$U$13,IF(H124="A",N124*Contagem!$U$12,IF(H124="T",N124*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P124" s="98"/>
-      <c r="Q124" s="98"/>
-      <c r="R124" s="98"/>
-      <c r="S124" s="98"/>
-      <c r="T124" s="98"/>
+      <c r="P124" s="107"/>
+      <c r="Q124" s="107"/>
+      <c r="R124" s="107"/>
+      <c r="S124" s="107"/>
+      <c r="T124" s="107"/>
     </row>
     <row r="125" spans="1:20" ht="18" customHeight="1">
-      <c r="A125" s="97" t="s">
+      <c r="A125" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="B125" s="97"/>
-      <c r="C125" s="97"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="97"/>
-      <c r="F125" s="97"/>
+      <c r="B125" s="108"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="108"/>
       <c r="G125" s="18" t="s">
         <v>48</v>
       </c>
@@ -13033,21 +13033,21 @@
         <f>IF(H125="I",N125*Contagem!$U$11,IF(H125="E",N125*Contagem!$U$13,IF(H125="A",N125*Contagem!$U$12,IF(H125="T",N125*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P125" s="98"/>
-      <c r="Q125" s="98"/>
-      <c r="R125" s="98"/>
-      <c r="S125" s="98"/>
-      <c r="T125" s="98"/>
+      <c r="P125" s="107"/>
+      <c r="Q125" s="107"/>
+      <c r="R125" s="107"/>
+      <c r="S125" s="107"/>
+      <c r="T125" s="107"/>
     </row>
     <row r="126" spans="1:20" ht="18" customHeight="1">
-      <c r="A126" s="97" t="s">
+      <c r="A126" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="B126" s="97"/>
-      <c r="C126" s="97"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="97"/>
-      <c r="F126" s="97"/>
+      <c r="B126" s="108"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="108"/>
+      <c r="E126" s="108"/>
+      <c r="F126" s="108"/>
       <c r="G126" s="18" t="s">
         <v>48</v>
       </c>
@@ -13080,21 +13080,21 @@
         <f>IF(H126="I",N126*Contagem!$U$11,IF(H126="E",N126*Contagem!$U$13,IF(H126="A",N126*Contagem!$U$12,IF(H126="T",N126*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P126" s="98"/>
-      <c r="Q126" s="98"/>
-      <c r="R126" s="98"/>
-      <c r="S126" s="98"/>
-      <c r="T126" s="98"/>
+      <c r="P126" s="107"/>
+      <c r="Q126" s="107"/>
+      <c r="R126" s="107"/>
+      <c r="S126" s="107"/>
+      <c r="T126" s="107"/>
     </row>
     <row r="127" spans="1:20" ht="18" customHeight="1">
-      <c r="A127" s="97" t="s">
+      <c r="A127" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="B127" s="97"/>
-      <c r="C127" s="97"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="97"/>
-      <c r="F127" s="97"/>
+      <c r="B127" s="108"/>
+      <c r="C127" s="108"/>
+      <c r="D127" s="108"/>
+      <c r="E127" s="108"/>
+      <c r="F127" s="108"/>
       <c r="G127" s="18" t="s">
         <v>48</v>
       </c>
@@ -13127,21 +13127,21 @@
         <f>IF(H127="I",N127*Contagem!$U$11,IF(H127="E",N127*Contagem!$U$13,IF(H127="A",N127*Contagem!$U$12,IF(H127="T",N127*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P127" s="98"/>
-      <c r="Q127" s="98"/>
-      <c r="R127" s="98"/>
-      <c r="S127" s="98"/>
-      <c r="T127" s="98"/>
+      <c r="P127" s="107"/>
+      <c r="Q127" s="107"/>
+      <c r="R127" s="107"/>
+      <c r="S127" s="107"/>
+      <c r="T127" s="107"/>
     </row>
     <row r="128" spans="1:20" ht="18" customHeight="1">
-      <c r="A128" s="97" t="s">
+      <c r="A128" s="108" t="s">
         <v>120</v>
       </c>
-      <c r="B128" s="97"/>
-      <c r="C128" s="97"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="97"/>
-      <c r="F128" s="97"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="108"/>
+      <c r="D128" s="108"/>
+      <c r="E128" s="108"/>
+      <c r="F128" s="108"/>
       <c r="G128" s="18" t="s">
         <v>48</v>
       </c>
@@ -13174,232 +13174,24 @@
         <f>IF(H128="I",N128*Contagem!$U$11,IF(H128="E",N128*Contagem!$U$13,IF(H128="A",N128*Contagem!$U$12,IF(H128="T",N128*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P128" s="98"/>
-      <c r="Q128" s="98"/>
-      <c r="R128" s="98"/>
-      <c r="S128" s="98"/>
-      <c r="T128" s="98"/>
+      <c r="P128" s="107"/>
+      <c r="Q128" s="107"/>
+      <c r="R128" s="107"/>
+      <c r="S128" s="107"/>
+      <c r="T128" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="P104:T104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="P125:T125"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="P127:T127"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="P126:T126"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P123:T123"/>
     <mergeCell ref="A128:F128"/>
     <mergeCell ref="P128:T128"/>
     <mergeCell ref="A99:F99"/>
@@ -13424,16 +13216,224 @@
     <mergeCell ref="P115:T115"/>
     <mergeCell ref="A116:F116"/>
     <mergeCell ref="P116:T116"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="P125:T125"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="P127:T127"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="P126:T126"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="H117">
     <cfRule type="cellIs" dxfId="89" priority="29" operator="equal">
@@ -13892,14 +13892,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
       <c r="G1" s="63" t="s">
         <v>27</v>
       </c>
@@ -13929,14 +13929,14 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.4">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
       <c r="G2" s="60" t="s">
         <v>36</v>
       </c>
@@ -13970,14 +13970,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="60" t="s">
         <v>39</v>
       </c>
@@ -14012,14 +14012,14 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="60" t="s">
         <v>39</v>
       </c>
@@ -14054,14 +14054,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="60" t="s">
         <v>39</v>
       </c>
@@ -14096,14 +14096,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
       <c r="G6" s="60" t="s">
         <v>44</v>
       </c>
@@ -14138,21 +14138,21 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
       <c r="N7" s="77">
         <f>SUM(N2:N6)</f>
         <v>29</v>
@@ -14163,14 +14163,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.4">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="69" t="s">
         <v>27</v>
       </c>
@@ -14200,14 +14200,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.4">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="142"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="135"/>
       <c r="G9" s="60" t="s">
         <v>36</v>
       </c>
@@ -14242,14 +14242,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="138"/>
       <c r="G10" s="60" t="s">
         <v>39</v>
       </c>
@@ -14284,14 +14284,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.4">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="138"/>
       <c r="G11" s="60" t="s">
         <v>39</v>
       </c>
@@ -14326,14 +14326,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.4">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
       <c r="G12" s="60" t="s">
         <v>39</v>
       </c>
@@ -14368,14 +14368,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.4">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="138"/>
       <c r="G13" s="60" t="s">
         <v>44</v>
       </c>
@@ -14410,21 +14410,21 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.4">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="135"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="144"/>
       <c r="N14" s="79">
         <f>SUM(N9:N13)</f>
         <v>21</v>
@@ -14435,14 +14435,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.4">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="69" t="s">
         <v>27</v>
       </c>
@@ -14472,14 +14472,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.4">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
       <c r="G16" s="60" t="s">
         <v>36</v>
       </c>
@@ -14514,14 +14514,14 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.4">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
       <c r="G17" s="60" t="s">
         <v>39</v>
       </c>
@@ -14556,14 +14556,14 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.4">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
       <c r="G18" s="60" t="s">
         <v>39</v>
       </c>
@@ -14598,14 +14598,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.4">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
       <c r="G19" s="60" t="s">
         <v>39</v>
       </c>
@@ -14640,14 +14640,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
       <c r="G20" s="60" t="s">
         <v>44</v>
       </c>
@@ -14707,14 +14707,14 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.4">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="69" t="s">
         <v>27</v>
       </c>
@@ -14744,14 +14744,14 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.4">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
       <c r="G23" s="60" t="s">
         <v>36</v>
       </c>
@@ -14786,14 +14786,14 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.4">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
       <c r="G24" s="60" t="s">
         <v>39</v>
       </c>
@@ -14828,14 +14828,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.4">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
       <c r="G25" s="60" t="s">
         <v>39</v>
       </c>
@@ -14870,14 +14870,14 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.4">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
       <c r="G26" s="60" t="s">
         <v>39</v>
       </c>
@@ -14912,14 +14912,14 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.4">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
       <c r="G27" s="60" t="s">
         <v>44</v>
       </c>
@@ -15023,6 +15023,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="A29:M29"/>
@@ -15039,20 +15053,6 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -15100,88 +15100,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="154" t="str">
+      <c r="A4" s="147" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155" t="str">
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="148" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="156" t="str">
+      <c r="A5" s="149" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="155" t="str">
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="148" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="29" t="str">
@@ -15192,58 +15192,58 @@
       <c r="C6" s="30"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="147" t="str">
+      <c r="F6" s="150" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147" t="str">
+      <c r="G6" s="150"/>
+      <c r="H6" s="150" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 182.000,00</v>
       </c>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148" t="str">
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 455</v>
       </c>
-      <c r="L6" s="148"/>
+      <c r="L6" s="151"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="150" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="151" t="s">
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="151"/>
-      <c r="I7" s="152" t="s">
+      <c r="H7" s="154"/>
+      <c r="I7" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="149"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="32"/>
@@ -16139,11 +16139,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="35"/>
-      <c r="B55" s="146" t="s">
+      <c r="B55" s="156" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
       <c r="E55" s="49">
         <f>SUMIF(Funções!$H$8:$H$128,"I",Funções!$N$8:$N$128)</f>
         <v>455</v>
@@ -16166,11 +16166,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="146" t="s">
+      <c r="B56" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
       <c r="E56" s="49">
         <f>SUMIF(Funções!$H$8:$H$128,"A",Funções!$N$8:$N$128)</f>
         <v>0</v>
@@ -16194,11 +16194,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="35"/>
-      <c r="B57" s="146" t="s">
+      <c r="B57" s="156" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
       <c r="E57" s="49">
         <f>SUMIF(Funções!$H$8:$H$128,"E",Funções!$N$8:$N$128)</f>
         <v>0</v>
@@ -16219,11 +16219,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="35"/>
-      <c r="B58" s="146" t="s">
+      <c r="B58" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="146"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
       <c r="E58" s="49">
         <f>SUMIF(Funções!$H$8:$H$128,"T",Funções!$N$8:$N$128)</f>
         <v>0</v>
@@ -16258,11 +16258,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A7:B8"/>
@@ -16271,11 +16271,11 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem.xlsx
+++ b/2-Requisitos/1.5-Planilha_de_Contagem/Planilha de Contagem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contagem" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="121">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -951,7 +951,7 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1100,6 +1100,17 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Source Sans Pro"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Source Sans Pro"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1705,7 +1716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1885,6 +1896,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1894,106 +1938,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2023,20 +1971,107 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2056,35 +2091,20 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="42" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="34" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2104,17 +2124,17 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5050,36 +5070,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -5088,34 +5108,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -5125,34 +5145,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -5162,45 +5182,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="88" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="88"/>
+      <c r="S4" s="84"/>
       <c r="T4" s="3">
         <v>400</v>
       </c>
-      <c r="U4" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="96">
+      <c r="U4" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="84"/>
+      <c r="W4" s="85">
         <f>W5*T4</f>
         <v>175200</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -5210,41 +5230,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="88" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="88"/>
-      <c r="W5" s="85">
+      <c r="V5" s="84"/>
+      <c r="W5" s="87">
         <f>SUM(Y11:Y14)</f>
         <v>438</v>
       </c>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -5254,36 +5274,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="92"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="92"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="92"/>
-      <c r="AB6" s="92"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -5293,38 +5313,38 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="89" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -5334,38 +5354,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="89" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -5411,46 +5431,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="90" t="s">
+      <c r="O10" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="88" t="s">
+      <c r="P10" s="92"/>
+      <c r="Q10" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88" t="s">
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88" t="s">
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -5460,46 +5480,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="86" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="89" t="s">
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="89"/>
-      <c r="S11" s="85">
+      <c r="R11" s="88"/>
+      <c r="S11" s="87">
         <f>Sumário!E55</f>
         <v>438</v>
       </c>
-      <c r="T11" s="85"/>
-      <c r="U11" s="84">
+      <c r="T11" s="87"/>
+      <c r="U11" s="90">
         <v>1</v>
       </c>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="85">
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="87">
         <f>S11*U11</f>
         <v>438</v>
       </c>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -5509,46 +5529,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="86" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="87" t="s">
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="87"/>
-      <c r="S12" s="85">
+      <c r="R12" s="93"/>
+      <c r="S12" s="87">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="85"/>
-      <c r="U12" s="84">
+      <c r="T12" s="87"/>
+      <c r="U12" s="90">
         <v>1</v>
       </c>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="85">
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="87">
         <f>S12*U12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -5558,46 +5578,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86" t="s">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="87" t="s">
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="87"/>
-      <c r="S13" s="85">
+      <c r="R13" s="93"/>
+      <c r="S13" s="87">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="85"/>
-      <c r="U13" s="84">
+      <c r="T13" s="87"/>
+      <c r="U13" s="90">
         <v>1</v>
       </c>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85">
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="87">
         <f>S13*U13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -5607,8 +5627,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5621,26 +5641,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="85">
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="87">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="85"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="85">
+      <c r="T14" s="87"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="87">
         <f>S14*U14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -5700,17 +5720,17 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="81" t="s">
+      <c r="K16" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -5729,34 +5749,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -5766,34 +5786,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -5803,34 +5823,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="82"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -5840,34 +5860,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -5877,34 +5897,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -5914,34 +5934,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="82"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -5951,34 +5971,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="82"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -5988,34 +6008,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -6025,34 +6045,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="82"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -6062,34 +6082,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="82"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -6099,34 +6119,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="82"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -6136,34 +6156,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -6173,34 +6193,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="82"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="82"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -6210,34 +6230,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -6247,34 +6267,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -6284,34 +6304,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
-      <c r="X32" s="82"/>
-      <c r="Y32" s="82"/>
-      <c r="Z32" s="82"/>
-      <c r="AA32" s="82"/>
-      <c r="AB32" s="82"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -6321,34 +6341,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -6358,34 +6378,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="82"/>
-      <c r="AB34" s="82"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -6395,34 +6415,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -6432,34 +6452,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="95"/>
+      <c r="AB36" s="95"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -6469,34 +6489,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-      <c r="U37" s="82"/>
-      <c r="V37" s="82"/>
-      <c r="W37" s="82"/>
-      <c r="X37" s="82"/>
-      <c r="Y37" s="82"/>
-      <c r="Z37" s="82"/>
-      <c r="AA37" s="82"/>
-      <c r="AB37" s="82"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="T37" s="95"/>
+      <c r="U37" s="95"/>
+      <c r="V37" s="95"/>
+      <c r="W37" s="95"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="95"/>
+      <c r="Z37" s="95"/>
+      <c r="AA37" s="95"/>
+      <c r="AB37" s="95"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6506,34 +6526,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="82"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="82"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
+      <c r="S38" s="95"/>
+      <c r="T38" s="95"/>
+      <c r="U38" s="95"/>
+      <c r="V38" s="95"/>
+      <c r="W38" s="95"/>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="95"/>
+      <c r="Z38" s="95"/>
+      <c r="AA38" s="95"/>
+      <c r="AB38" s="95"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6590,17 +6610,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="81" t="s">
+      <c r="K40" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -6619,34 +6639,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="95"/>
+      <c r="Z41" s="95"/>
+      <c r="AA41" s="95"/>
+      <c r="AB41" s="95"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -6656,34 +6676,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -6693,34 +6713,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="95"/>
+      <c r="Z43" s="95"/>
+      <c r="AA43" s="95"/>
+      <c r="AB43" s="95"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -6730,34 +6750,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="82"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="95"/>
+      <c r="AA44" s="95"/>
+      <c r="AB44" s="95"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6767,34 +6787,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="95"/>
+      <c r="Z45" s="95"/>
+      <c r="AA45" s="95"/>
+      <c r="AB45" s="95"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -6804,34 +6824,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82"/>
-      <c r="Z46" s="82"/>
-      <c r="AA46" s="82"/>
-      <c r="AB46" s="82"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
+      <c r="Y46" s="95"/>
+      <c r="Z46" s="95"/>
+      <c r="AA46" s="95"/>
+      <c r="AB46" s="95"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -6841,34 +6861,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="82"/>
-      <c r="Z47" s="82"/>
-      <c r="AA47" s="82"/>
-      <c r="AB47" s="82"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -6878,34 +6898,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="95"/>
+      <c r="V48" s="95"/>
+      <c r="W48" s="95"/>
+      <c r="X48" s="95"/>
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="95"/>
+      <c r="AA48" s="95"/>
+      <c r="AB48" s="95"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -6915,34 +6935,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="95"/>
+      <c r="U49" s="95"/>
+      <c r="V49" s="95"/>
+      <c r="W49" s="95"/>
+      <c r="X49" s="95"/>
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="95"/>
+      <c r="AA49" s="95"/>
+      <c r="AB49" s="95"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -6952,34 +6972,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="95"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="95"/>
+      <c r="W50" s="95"/>
+      <c r="X50" s="95"/>
+      <c r="Y50" s="95"/>
+      <c r="Z50" s="95"/>
+      <c r="AA50" s="95"/>
+      <c r="AB50" s="95"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -6989,34 +7009,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="95"/>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7026,34 +7046,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="82"/>
-      <c r="AB52" s="82"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="95"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="95"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -7063,34 +7083,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="82"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="82"/>
-      <c r="T53" s="82"/>
-      <c r="U53" s="82"/>
-      <c r="V53" s="82"/>
-      <c r="W53" s="82"/>
-      <c r="X53" s="82"/>
-      <c r="Y53" s="82"/>
-      <c r="Z53" s="82"/>
-      <c r="AA53" s="82"/>
-      <c r="AB53" s="82"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="95"/>
+      <c r="K53" s="95"/>
+      <c r="L53" s="95"/>
+      <c r="M53" s="95"/>
+      <c r="N53" s="95"/>
+      <c r="O53" s="95"/>
+      <c r="P53" s="95"/>
+      <c r="Q53" s="95"/>
+      <c r="R53" s="95"/>
+      <c r="S53" s="95"/>
+      <c r="T53" s="95"/>
+      <c r="U53" s="95"/>
+      <c r="V53" s="95"/>
+      <c r="W53" s="95"/>
+      <c r="X53" s="95"/>
+      <c r="Y53" s="95"/>
+      <c r="Z53" s="95"/>
+      <c r="AA53" s="95"/>
+      <c r="AB53" s="95"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -7100,34 +7120,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-      <c r="L54" s="82"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="82"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="82"/>
-      <c r="T54" s="82"/>
-      <c r="U54" s="82"/>
-      <c r="V54" s="82"/>
-      <c r="W54" s="82"/>
-      <c r="X54" s="82"/>
-      <c r="Y54" s="82"/>
-      <c r="Z54" s="82"/>
-      <c r="AA54" s="82"/>
-      <c r="AB54" s="82"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
+      <c r="W54" s="95"/>
+      <c r="X54" s="95"/>
+      <c r="Y54" s="95"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7137,34 +7157,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="82"/>
-      <c r="V55" s="82"/>
-      <c r="W55" s="82"/>
-      <c r="X55" s="82"/>
-      <c r="Y55" s="82"/>
-      <c r="Z55" s="82"/>
-      <c r="AA55" s="82"/>
-      <c r="AB55" s="82"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
+      <c r="L55" s="95"/>
+      <c r="M55" s="95"/>
+      <c r="N55" s="95"/>
+      <c r="O55" s="95"/>
+      <c r="P55" s="95"/>
+      <c r="Q55" s="95"/>
+      <c r="R55" s="95"/>
+      <c r="S55" s="95"/>
+      <c r="T55" s="95"/>
+      <c r="U55" s="95"/>
+      <c r="V55" s="95"/>
+      <c r="W55" s="95"/>
+      <c r="X55" s="95"/>
+      <c r="Y55" s="95"/>
+      <c r="Z55" s="95"/>
+      <c r="AA55" s="95"/>
+      <c r="AB55" s="95"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -7174,34 +7194,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="82"/>
-      <c r="V56" s="82"/>
-      <c r="W56" s="82"/>
-      <c r="X56" s="82"/>
-      <c r="Y56" s="82"/>
-      <c r="Z56" s="82"/>
-      <c r="AA56" s="82"/>
-      <c r="AB56" s="82"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
+      <c r="L56" s="95"/>
+      <c r="M56" s="95"/>
+      <c r="N56" s="95"/>
+      <c r="O56" s="95"/>
+      <c r="P56" s="95"/>
+      <c r="Q56" s="95"/>
+      <c r="R56" s="95"/>
+      <c r="S56" s="95"/>
+      <c r="T56" s="95"/>
+      <c r="U56" s="95"/>
+      <c r="V56" s="95"/>
+      <c r="W56" s="95"/>
+      <c r="X56" s="95"/>
+      <c r="Y56" s="95"/>
+      <c r="Z56" s="95"/>
+      <c r="AA56" s="95"/>
+      <c r="AB56" s="95"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -7211,34 +7231,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="82"/>
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="82"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="82"/>
-      <c r="R57" s="82"/>
-      <c r="S57" s="82"/>
-      <c r="T57" s="82"/>
-      <c r="U57" s="82"/>
-      <c r="V57" s="82"/>
-      <c r="W57" s="82"/>
-      <c r="X57" s="82"/>
-      <c r="Y57" s="82"/>
-      <c r="Z57" s="82"/>
-      <c r="AA57" s="82"/>
-      <c r="AB57" s="82"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
+      <c r="L57" s="95"/>
+      <c r="M57" s="95"/>
+      <c r="N57" s="95"/>
+      <c r="O57" s="95"/>
+      <c r="P57" s="95"/>
+      <c r="Q57" s="95"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="95"/>
+      <c r="V57" s="95"/>
+      <c r="W57" s="95"/>
+      <c r="X57" s="95"/>
+      <c r="Y57" s="95"/>
+      <c r="Z57" s="95"/>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="95"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -7248,34 +7268,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="82"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="82"/>
-      <c r="P58" s="82"/>
-      <c r="Q58" s="82"/>
-      <c r="R58" s="82"/>
-      <c r="S58" s="82"/>
-      <c r="T58" s="82"/>
-      <c r="U58" s="82"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
-      <c r="X58" s="82"/>
-      <c r="Y58" s="82"/>
-      <c r="Z58" s="82"/>
-      <c r="AA58" s="82"/>
-      <c r="AB58" s="82"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
+      <c r="I58" s="95"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="95"/>
+      <c r="N58" s="95"/>
+      <c r="O58" s="95"/>
+      <c r="P58" s="95"/>
+      <c r="Q58" s="95"/>
+      <c r="R58" s="95"/>
+      <c r="S58" s="95"/>
+      <c r="T58" s="95"/>
+      <c r="U58" s="95"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
+      <c r="X58" s="95"/>
+      <c r="Y58" s="95"/>
+      <c r="Z58" s="95"/>
+      <c r="AA58" s="95"/>
+      <c r="AB58" s="95"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -7285,34 +7305,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="82"/>
-      <c r="P59" s="82"/>
-      <c r="Q59" s="82"/>
-      <c r="R59" s="82"/>
-      <c r="S59" s="82"/>
-      <c r="T59" s="82"/>
-      <c r="U59" s="82"/>
-      <c r="V59" s="82"/>
-      <c r="W59" s="82"/>
-      <c r="X59" s="82"/>
-      <c r="Y59" s="82"/>
-      <c r="Z59" s="82"/>
-      <c r="AA59" s="82"/>
-      <c r="AB59" s="82"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="95"/>
+      <c r="M59" s="95"/>
+      <c r="N59" s="95"/>
+      <c r="O59" s="95"/>
+      <c r="P59" s="95"/>
+      <c r="Q59" s="95"/>
+      <c r="R59" s="95"/>
+      <c r="S59" s="95"/>
+      <c r="T59" s="95"/>
+      <c r="U59" s="95"/>
+      <c r="V59" s="95"/>
+      <c r="W59" s="95"/>
+      <c r="X59" s="95"/>
+      <c r="Y59" s="95"/>
+      <c r="Z59" s="95"/>
+      <c r="AA59" s="95"/>
+      <c r="AB59" s="95"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -7322,34 +7342,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="82"/>
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="82"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="82"/>
-      <c r="P60" s="82"/>
-      <c r="Q60" s="82"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="82"/>
-      <c r="T60" s="82"/>
-      <c r="U60" s="82"/>
-      <c r="V60" s="82"/>
-      <c r="W60" s="82"/>
-      <c r="X60" s="82"/>
-      <c r="Y60" s="82"/>
-      <c r="Z60" s="82"/>
-      <c r="AA60" s="82"/>
-      <c r="AB60" s="82"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="95"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="95"/>
+      <c r="T60" s="95"/>
+      <c r="U60" s="95"/>
+      <c r="V60" s="95"/>
+      <c r="W60" s="95"/>
+      <c r="X60" s="95"/>
+      <c r="Y60" s="95"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="95"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -7360,39 +7380,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:AB3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:AB5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:AB14"/>
     <mergeCell ref="K16:S16"/>
     <mergeCell ref="A17:AB38"/>
     <mergeCell ref="K40:S40"/>
@@ -7409,6 +7396,39 @@
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:AB5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:AB4"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7421,7 +7441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
@@ -7445,23 +7465,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
@@ -7469,21 +7489,21 @@
       <c r="T1" s="11"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
@@ -7491,21 +7511,21 @@
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
@@ -7513,89 +7533,89 @@
       <c r="T3" s="11"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="121" t="str">
+      <c r="A4" s="100" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122" t="str">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="123" t="str">
+      <c r="A5" s="102" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="122" t="str">
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="101" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="124" t="str">
+      <c r="A6" s="103" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="122" t="str">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="101" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="125" t="str">
+      <c r="G6" s="101"/>
+      <c r="H6" s="104" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 175.200,00</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="126" t="str">
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="105" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 438</v>
       </c>
-      <c r="O6" s="126"/>
+      <c r="O6" s="105"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -7603,14 +7623,14 @@
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
@@ -7638,23 +7658,23 @@
       <c r="O7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="128" t="s">
+      <c r="P7" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="18" t="s">
         <v>36</v>
       </c>
@@ -7976,14 +7996,14 @@
       <c r="T14" s="98"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="18" t="s">
         <v>44</v>
       </c>
@@ -8023,14 +8043,14 @@
       <c r="T15" s="98"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="18" t="s">
         <v>48</v>
       </c>
@@ -8070,12 +8090,12 @@
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="18"/>
       <c r="H17" s="19" t="s">
         <v>37</v>
@@ -8109,14 +8129,14 @@
       <c r="T17" s="98"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="18" t="s">
         <v>36</v>
       </c>
@@ -8155,14 +8175,14 @@
       <c r="T18" s="98"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="18" t="s">
         <v>39</v>
       </c>
@@ -8202,14 +8222,14 @@
       <c r="T19" s="98"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="18" t="s">
         <v>39</v>
       </c>
@@ -8249,14 +8269,14 @@
       <c r="T20" s="98"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
       <c r="G21" s="18" t="s">
         <v>39</v>
       </c>
@@ -8296,14 +8316,14 @@
       <c r="T21" s="98"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="18" t="s">
         <v>44</v>
       </c>
@@ -8343,12 +8363,12 @@
       <c r="T22" s="98"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19" t="s">
         <v>37</v>
@@ -8382,14 +8402,14 @@
       <c r="T23" s="98"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="18" t="s">
         <v>36</v>
       </c>
@@ -8429,14 +8449,14 @@
       <c r="T24" s="98"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="109" t="s">
+      <c r="A25" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="18" t="s">
         <v>39</v>
       </c>
@@ -8476,14 +8496,14 @@
       <c r="T25" s="98"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="18" t="s">
         <v>39</v>
       </c>
@@ -8523,14 +8543,14 @@
       <c r="T26" s="98"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="18" t="s">
         <v>39</v>
       </c>
@@ -8570,14 +8590,14 @@
       <c r="T27" s="98"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="18" t="s">
         <v>44</v>
       </c>
@@ -8932,14 +8952,14 @@
       <c r="T35" s="98"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="102"/>
-      <c r="F36" s="103"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="120"/>
       <c r="G36" s="18" t="s">
         <v>36</v>
       </c>
@@ -8972,21 +8992,21 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P36" s="104"/>
+      <c r="P36" s="114"/>
       <c r="Q36" s="98"/>
       <c r="R36" s="98"/>
       <c r="S36" s="98"/>
       <c r="T36" s="98"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="115"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
       <c r="G37" s="18" t="s">
         <v>39</v>
       </c>
@@ -9019,21 +9039,21 @@
         <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P37" s="104"/>
+      <c r="P37" s="114"/>
       <c r="Q37" s="98"/>
       <c r="R37" s="98"/>
       <c r="S37" s="98"/>
       <c r="T37" s="98"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="115"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="117"/>
       <c r="G38" s="18" t="s">
         <v>39</v>
       </c>
@@ -9066,21 +9086,21 @@
         <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P38" s="104"/>
+      <c r="P38" s="114"/>
       <c r="Q38" s="98"/>
       <c r="R38" s="98"/>
       <c r="S38" s="98"/>
       <c r="T38" s="98"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="117"/>
       <c r="G39" s="18" t="s">
         <v>39</v>
       </c>
@@ -9113,21 +9133,21 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P39" s="104"/>
+      <c r="P39" s="114"/>
       <c r="Q39" s="98"/>
       <c r="R39" s="98"/>
       <c r="S39" s="98"/>
       <c r="T39" s="98"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
-      <c r="A40" s="113" t="s">
+      <c r="A40" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
       <c r="G40" s="18" t="s">
         <v>44</v>
       </c>
@@ -9160,19 +9180,19 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P40" s="104"/>
+      <c r="P40" s="114"/>
       <c r="Q40" s="98"/>
       <c r="R40" s="98"/>
       <c r="S40" s="98"/>
       <c r="T40" s="98"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="123"/>
       <c r="G41" s="18"/>
       <c r="H41" s="19" t="s">
         <v>37</v>
@@ -9199,21 +9219,21 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P41" s="104"/>
+      <c r="P41" s="114"/>
       <c r="Q41" s="98"/>
       <c r="R41" s="98"/>
       <c r="S41" s="98"/>
       <c r="T41" s="98"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
-      <c r="A42" s="116" t="s">
+      <c r="A42" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="18" t="s">
         <v>36</v>
       </c>
@@ -9253,14 +9273,14 @@
       <c r="T42" s="98"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
-      <c r="A43" s="109" t="s">
+      <c r="A43" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="109"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
       <c r="G43" s="18" t="s">
         <v>39</v>
       </c>
@@ -9300,14 +9320,14 @@
       <c r="T43" s="98"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
       <c r="G44" s="18" t="s">
         <v>39</v>
       </c>
@@ -9347,14 +9367,14 @@
       <c r="T44" s="98"/>
     </row>
     <row r="45" spans="1:20" ht="18" customHeight="1">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
       <c r="G45" s="18" t="s">
         <v>39</v>
       </c>
@@ -9394,14 +9414,14 @@
       <c r="T45" s="98"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
       <c r="G46" s="18" t="s">
         <v>44</v>
       </c>
@@ -9480,14 +9500,14 @@
       <c r="T47" s="98"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
       <c r="G48" s="18" t="s">
         <v>36</v>
       </c>
@@ -9527,14 +9547,14 @@
       <c r="T48" s="98"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="109" t="s">
+      <c r="A49" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
       <c r="G49" s="18" t="s">
         <v>39</v>
       </c>
@@ -9574,14 +9594,14 @@
       <c r="T49" s="98"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
       <c r="G50" s="18" t="s">
         <v>39</v>
       </c>
@@ -9621,14 +9641,14 @@
       <c r="T50" s="98"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
       <c r="G51" s="18" t="s">
         <v>39</v>
       </c>
@@ -9668,14 +9688,14 @@
       <c r="T51" s="98"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="109" t="s">
+      <c r="A52" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
       <c r="G52" s="18" t="s">
         <v>44</v>
       </c>
@@ -9754,14 +9774,14 @@
       <c r="T53" s="98"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
       <c r="G54" s="18" t="s">
         <v>36</v>
       </c>
@@ -9801,14 +9821,14 @@
       <c r="T54" s="98"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
-      <c r="A55" s="109" t="s">
+      <c r="A55" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="109"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
       <c r="G55" s="18" t="s">
         <v>39</v>
       </c>
@@ -9848,14 +9868,14 @@
       <c r="T55" s="98"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
-      <c r="A56" s="109" t="s">
+      <c r="A56" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
       <c r="G56" s="18" t="s">
         <v>39</v>
       </c>
@@ -9895,14 +9915,14 @@
       <c r="T56" s="98"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
-      <c r="A57" s="109" t="s">
+      <c r="A57" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="109"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
       <c r="G57" s="18" t="s">
         <v>39</v>
       </c>
@@ -9942,14 +9962,14 @@
       <c r="T57" s="98"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
       <c r="G58" s="18" t="s">
         <v>44</v>
       </c>
@@ -10028,14 +10048,14 @@
       <c r="T59" s="98"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="108"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
       <c r="G60" s="18" t="s">
         <v>36</v>
       </c>
@@ -10075,14 +10095,14 @@
       <c r="T60" s="98"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
-      <c r="A61" s="109" t="s">
+      <c r="A61" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="109"/>
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
       <c r="G61" s="18" t="s">
         <v>39</v>
       </c>
@@ -10122,14 +10142,14 @@
       <c r="T61" s="98"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="109"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
       <c r="G62" s="18" t="s">
         <v>39</v>
       </c>
@@ -10169,14 +10189,14 @@
       <c r="T62" s="98"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
       <c r="G63" s="18" t="s">
         <v>39</v>
       </c>
@@ -10216,14 +10236,14 @@
       <c r="T63" s="98"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
       <c r="G64" s="18" t="s">
         <v>44</v>
       </c>
@@ -10341,14 +10361,14 @@
       <c r="T66" s="98"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
       <c r="G67" s="18" t="s">
         <v>36</v>
       </c>
@@ -10388,14 +10408,14 @@
       <c r="T67" s="98"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
-      <c r="A68" s="109" t="s">
+      <c r="A68" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
       <c r="G68" s="18" t="s">
         <v>39</v>
       </c>
@@ -10435,14 +10455,14 @@
       <c r="T68" s="98"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
       <c r="G69" s="18" t="s">
         <v>39</v>
       </c>
@@ -10482,14 +10502,14 @@
       <c r="T69" s="98"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
-      <c r="A70" s="109" t="s">
+      <c r="A70" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
       <c r="G70" s="18" t="s">
         <v>39</v>
       </c>
@@ -10568,14 +10588,14 @@
       <c r="T71" s="98"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
+      <c r="B72" s="124"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
       <c r="G72" s="18" t="s">
         <v>36</v>
       </c>
@@ -10615,14 +10635,14 @@
       <c r="T72" s="98"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
-      <c r="A73" s="109" t="s">
+      <c r="A73" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
       <c r="G73" s="18" t="s">
         <v>39</v>
       </c>
@@ -10662,14 +10682,14 @@
       <c r="T73" s="98"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
-      <c r="A74" s="109" t="s">
+      <c r="A74" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="109"/>
-      <c r="C74" s="109"/>
-      <c r="D74" s="109"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="109"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="112"/>
+      <c r="F74" s="112"/>
       <c r="G74" s="18" t="s">
         <v>39</v>
       </c>
@@ -10709,14 +10729,14 @@
       <c r="T74" s="98"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
-      <c r="A75" s="109" t="s">
+      <c r="A75" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B75" s="109"/>
-      <c r="C75" s="109"/>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="109"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
       <c r="G75" s="18" t="s">
         <v>39</v>
       </c>
@@ -10842,14 +10862,14 @@
       <c r="T77" s="98"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="108"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="108"/>
-      <c r="F78" s="108"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="124"/>
       <c r="G78" s="18" t="s">
         <v>36</v>
       </c>
@@ -10889,14 +10909,14 @@
       <c r="T78" s="98"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
-      <c r="A79" s="109" t="s">
+      <c r="A79" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="109"/>
-      <c r="C79" s="109"/>
-      <c r="D79" s="109"/>
-      <c r="E79" s="109"/>
-      <c r="F79" s="109"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="112"/>
       <c r="G79" s="18" t="s">
         <v>39</v>
       </c>
@@ -10936,14 +10956,14 @@
       <c r="T79" s="98"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="109"/>
-      <c r="C80" s="109"/>
-      <c r="D80" s="109"/>
-      <c r="E80" s="109"/>
-      <c r="F80" s="109"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
+      <c r="F80" s="112"/>
       <c r="G80" s="18" t="s">
         <v>39</v>
       </c>
@@ -10983,14 +11003,14 @@
       <c r="T80" s="98"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
-      <c r="A81" s="109" t="s">
+      <c r="A81" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="109"/>
-      <c r="C81" s="109"/>
-      <c r="D81" s="109"/>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="112"/>
       <c r="G81" s="18" t="s">
         <v>39</v>
       </c>
@@ -11210,14 +11230,14 @@
       <c r="T85" s="98"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
-      <c r="A86" s="110" t="s">
+      <c r="A86" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="111"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="112"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="127"/>
       <c r="G86" s="18" t="s">
         <v>36</v>
       </c>
@@ -11250,21 +11270,21 @@
         <f>IF(H86="I",N86*Contagem!$U$11,IF(H86="E",N86*Contagem!$U$13,IF(H86="A",N86*Contagem!$U$12,IF(H86="T",N86*Contagem!$U$14,""))))</f>
         <v>10</v>
       </c>
-      <c r="P86" s="104"/>
+      <c r="P86" s="114"/>
       <c r="Q86" s="98"/>
       <c r="R86" s="98"/>
       <c r="S86" s="98"/>
       <c r="T86" s="98"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
-      <c r="A87" s="113" t="s">
+      <c r="A87" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="115"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="117"/>
       <c r="G87" s="18" t="s">
         <v>39</v>
       </c>
@@ -11297,21 +11317,21 @@
         <f>IF(H87="I",N87*Contagem!$U$11,IF(H87="E",N87*Contagem!$U$13,IF(H87="A",N87*Contagem!$U$12,IF(H87="T",N87*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P87" s="104"/>
+      <c r="P87" s="114"/>
       <c r="Q87" s="98"/>
       <c r="R87" s="98"/>
       <c r="S87" s="98"/>
       <c r="T87" s="98"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
-      <c r="A88" s="109" t="s">
+      <c r="A88" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
       <c r="G88" s="18" t="s">
         <v>39</v>
       </c>
@@ -11351,14 +11371,14 @@
       <c r="T88" s="98"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
-      <c r="A89" s="109" t="s">
+      <c r="A89" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="109"/>
-      <c r="C89" s="109"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109"/>
+      <c r="B89" s="112"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="112"/>
+      <c r="E89" s="112"/>
+      <c r="F89" s="112"/>
       <c r="G89" s="18" t="s">
         <v>39</v>
       </c>
@@ -11578,14 +11598,14 @@
       <c r="T93" s="98"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
-      <c r="A94" s="108" t="s">
+      <c r="A94" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="108"/>
-      <c r="C94" s="108"/>
-      <c r="D94" s="108"/>
-      <c r="E94" s="108"/>
-      <c r="F94" s="108"/>
+      <c r="B94" s="124"/>
+      <c r="C94" s="124"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="124"/>
+      <c r="F94" s="124"/>
       <c r="G94" s="18" t="s">
         <v>36</v>
       </c>
@@ -11625,14 +11645,14 @@
       <c r="T94" s="98"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
-      <c r="A95" s="109" t="s">
+      <c r="A95" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="109"/>
-      <c r="C95" s="109"/>
-      <c r="D95" s="109"/>
-      <c r="E95" s="109"/>
-      <c r="F95" s="109"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="112"/>
+      <c r="E95" s="112"/>
+      <c r="F95" s="112"/>
       <c r="G95" s="18" t="s">
         <v>39</v>
       </c>
@@ -11672,14 +11692,14 @@
       <c r="T95" s="98"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
-      <c r="A96" s="109" t="s">
+      <c r="A96" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="109"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="109"/>
-      <c r="F96" s="109"/>
+      <c r="B96" s="112"/>
+      <c r="C96" s="112"/>
+      <c r="D96" s="112"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="112"/>
       <c r="G96" s="18" t="s">
         <v>39</v>
       </c>
@@ -11719,14 +11739,14 @@
       <c r="T96" s="98"/>
     </row>
     <row r="97" spans="1:20" ht="18" customHeight="1">
-      <c r="A97" s="109" t="s">
+      <c r="A97" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="109"/>
-      <c r="C97" s="109"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="109"/>
-      <c r="F97" s="109"/>
+      <c r="B97" s="112"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="112"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="112"/>
       <c r="G97" s="18" t="s">
         <v>39</v>
       </c>
@@ -11954,12 +11974,12 @@
       <c r="T101" s="98"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
-      <c r="A102" s="105"/>
-      <c r="B102" s="106"/>
-      <c r="C102" s="106"/>
-      <c r="D102" s="106"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="107"/>
+      <c r="A102" s="121"/>
+      <c r="B102" s="122"/>
+      <c r="C102" s="122"/>
+      <c r="D102" s="122"/>
+      <c r="E102" s="122"/>
+      <c r="F102" s="123"/>
       <c r="G102" s="18"/>
       <c r="H102" s="19" t="s">
         <v>37</v>
@@ -11986,21 +12006,21 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P102" s="104"/>
+      <c r="P102" s="114"/>
       <c r="Q102" s="98"/>
       <c r="R102" s="98"/>
       <c r="S102" s="98"/>
       <c r="T102" s="98"/>
     </row>
     <row r="103" spans="1:20" ht="18" customHeight="1">
-      <c r="A103" s="101" t="s">
+      <c r="A103" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="102"/>
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
-      <c r="F103" s="103"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="119"/>
+      <c r="E103" s="119"/>
+      <c r="F103" s="120"/>
       <c r="G103" s="18" t="s">
         <v>36</v>
       </c>
@@ -12033,21 +12053,21 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P103" s="104"/>
+      <c r="P103" s="114"/>
       <c r="Q103" s="98"/>
       <c r="R103" s="98"/>
       <c r="S103" s="98"/>
       <c r="T103" s="98"/>
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
-      <c r="A104" s="105" t="s">
+      <c r="A104" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="106"/>
-      <c r="C104" s="106"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="107"/>
+      <c r="B104" s="122"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="122"/>
+      <c r="E104" s="122"/>
+      <c r="F104" s="123"/>
       <c r="G104" s="18" t="s">
         <v>39</v>
       </c>
@@ -12080,21 +12100,21 @@
         <f>IF(H104="I",N104*Contagem!$U$11,IF(H104="E",N104*Contagem!$U$13,IF(H104="A",N104*Contagem!$U$12,IF(H104="T",N104*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P104" s="104"/>
+      <c r="P104" s="114"/>
       <c r="Q104" s="98"/>
       <c r="R104" s="98"/>
       <c r="S104" s="98"/>
       <c r="T104" s="98"/>
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
-      <c r="A105" s="105" t="s">
+      <c r="A105" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B105" s="106"/>
-      <c r="C105" s="106"/>
-      <c r="D105" s="106"/>
-      <c r="E105" s="106"/>
-      <c r="F105" s="107"/>
+      <c r="B105" s="122"/>
+      <c r="C105" s="122"/>
+      <c r="D105" s="122"/>
+      <c r="E105" s="122"/>
+      <c r="F105" s="123"/>
       <c r="G105" s="18" t="s">
         <v>39</v>
       </c>
@@ -12127,7 +12147,7 @@
         <f>IF(H105="I",N105*Contagem!$U$11,IF(H105="E",N105*Contagem!$U$13,IF(H105="A",N105*Contagem!$U$12,IF(H105="T",N105*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P105" s="104"/>
+      <c r="P105" s="114"/>
       <c r="Q105" s="98"/>
       <c r="R105" s="98"/>
       <c r="S105" s="98"/>
@@ -12267,14 +12287,14 @@
       <c r="T108" s="98"/>
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
-      <c r="A109" s="100" t="s">
+      <c r="A109" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="100"/>
-      <c r="C109" s="100"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="100"/>
+      <c r="B109" s="128"/>
+      <c r="C109" s="128"/>
+      <c r="D109" s="128"/>
+      <c r="E109" s="128"/>
+      <c r="F109" s="128"/>
       <c r="G109" s="18" t="s">
         <v>36</v>
       </c>
@@ -12447,14 +12467,14 @@
       <c r="T112" s="98"/>
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
-      <c r="A113" s="99" t="s">
+      <c r="A113" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B113" s="99"/>
-      <c r="C113" s="99"/>
-      <c r="D113" s="99"/>
-      <c r="E113" s="99"/>
-      <c r="F113" s="99"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="108"/>
       <c r="G113" s="18"/>
       <c r="H113" s="19" t="s">
         <v>37</v>
@@ -12912,6 +12932,222 @@
     </row>
   </sheetData>
   <mergeCells count="240">
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="P99:T99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="P96:T96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="P97:T97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="P98:T98"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="P70:T70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="P73:T73"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P17:T17"/>
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="P85:T85"/>
     <mergeCell ref="A84:F84"/>
@@ -12936,222 +13172,6 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="P11:T11"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="P70:T70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="P73:T73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="P96:T96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="P97:T97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="P98:T98"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="P104:T104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="P99:T99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="P100:T100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="P117:T117"/>
   </mergeCells>
   <conditionalFormatting sqref="H111">
     <cfRule type="cellIs" dxfId="86" priority="29" operator="equal">
@@ -13477,23 +13497,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
       <c r="G1" s="18" t="s">
         <v>36</v>
       </c>
@@ -13507,19 +13527,19 @@
         <v>1</v>
       </c>
       <c r="K1" s="18" t="str">
-        <f t="shared" ref="K1:K33" si="0">CONCATENATE(G1,L1)</f>
+        <f t="shared" ref="K1:K28" si="0">CONCATENATE(G1,L1)</f>
         <v>ALIL</v>
       </c>
       <c r="L1" s="20" t="str">
-        <f t="shared" ref="L1:L33" si="1">IF(OR(ISBLANK(I1),ISBLANK(J1)),IF(OR(G1="ALI",G1="AIE"),"L",IF(ISBLANK(G1),"","A")),IF(G1="EE",IF(J1&gt;=3,IF(I1&gt;=5,"H","A"),IF(J1&gt;=2,IF(I1&gt;=16,"H",IF(I1&lt;=4,"L","A")),IF(I1&lt;=15,"L","A"))),IF(OR(G1="SE",G1="CE"),IF(J1&gt;=4,IF(I1&gt;=6,"H","A"),IF(J1&gt;=2,IF(I1&gt;=20,"H",IF(I1&lt;=5,"L","A")),IF(I1&lt;=19,"L","A"))),IF(OR(G1="ALI",G1="AIE"),IF(J1&gt;=6,IF(I1&gt;=20,"H","A"),IF(J1&gt;=2,IF(I1&gt;=51,"H",IF(I1&lt;=19,"L","A")),IF(I1&lt;=50,"L","A")))))))</f>
+        <f t="shared" ref="L1:L28" si="1">IF(OR(ISBLANK(I1),ISBLANK(J1)),IF(OR(G1="ALI",G1="AIE"),"L",IF(ISBLANK(G1),"","A")),IF(G1="EE",IF(J1&gt;=3,IF(I1&gt;=5,"H","A"),IF(J1&gt;=2,IF(I1&gt;=16,"H",IF(I1&lt;=4,"L","A")),IF(I1&lt;=15,"L","A"))),IF(OR(G1="SE",G1="CE"),IF(J1&gt;=4,IF(I1&gt;=6,"H","A"),IF(J1&gt;=2,IF(I1&gt;=20,"H",IF(I1&lt;=5,"L","A")),IF(I1&lt;=19,"L","A"))),IF(OR(G1="ALI",G1="AIE"),IF(J1&gt;=6,IF(I1&gt;=20,"H","A"),IF(J1&gt;=2,IF(I1&gt;=51,"H",IF(I1&lt;=19,"L","A")),IF(I1&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M1" s="21" t="str">
-        <f t="shared" ref="M1:M33" si="2">IF(L1="L","Baixa",IF(L1="A","Média",IF(L1="","","Alta")))</f>
+        <f t="shared" ref="M1:M28" si="2">IF(L1="L","Baixa",IF(L1="A","Média",IF(L1="","","Alta")))</f>
         <v>Baixa</v>
       </c>
       <c r="N1" s="22">
-        <f t="shared" ref="N1:N33" si="3">IF(ISBLANK(G1),"",IF(G1="ALI",IF(L1="L",7,IF(L1="A",10,15)),IF(G1="AIE",IF(L1="L",5,IF(L1="A",7,10)),IF(G1="SE",IF(L1="L",4,IF(L1="A",5,7)),IF(OR(G1="EE",G1="CE"),IF(L1="L",3,IF(L1="A",4,6)))))))</f>
+        <f t="shared" ref="N1:N28" si="3">IF(ISBLANK(G1),"",IF(G1="ALI",IF(L1="L",7,IF(L1="A",10,15)),IF(G1="AIE",IF(L1="L",5,IF(L1="A",7,10)),IF(G1="SE",IF(L1="L",4,IF(L1="A",5,7)),IF(OR(G1="EE",G1="CE"),IF(L1="L",3,IF(L1="A",4,6)))))))</f>
         <v>7</v>
       </c>
       <c r="O1" s="23">
@@ -13533,14 +13553,14 @@
       <c r="T1" s="98"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="18" t="s">
         <v>39</v>
       </c>
@@ -13580,14 +13600,14 @@
       <c r="T2" s="98"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
@@ -13627,14 +13647,14 @@
       <c r="T3" s="98"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="18" t="s">
         <v>39</v>
       </c>
@@ -13674,14 +13694,14 @@
       <c r="T4" s="98"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="18" t="s">
         <v>44</v>
       </c>
@@ -13721,37 +13741,45 @@
       <c r="T5" s="98"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="H6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="18">
+        <v>6</v>
+      </c>
+      <c r="J6" s="18">
+        <v>2</v>
+      </c>
       <c r="K6" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>ALIL</v>
       </c>
       <c r="L6" s="20" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>L</v>
       </c>
       <c r="M6" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N6" s="22" t="str">
+        <v>Baixa</v>
+      </c>
+      <c r="N6" s="22">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O6" s="23" t="e">
+        <v>7</v>
+      </c>
+      <c r="O6" s="23">
         <f>IF(H6="I",N6*Contagem!$U$11,IF(H6="E",N6*Contagem!$U$13,IF(H6="A",N6*Contagem!$U$12,IF(H6="T",N6*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
+        <v>7</v>
       </c>
       <c r="P6" s="98"/>
       <c r="Q6" s="98"/>
@@ -13760,37 +13788,45 @@
       <c r="T6" s="98"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="18"/>
+      <c r="A7" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="18">
+        <v>6</v>
+      </c>
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
       <c r="K7" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L7" s="20" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M7" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N7" s="22" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N7" s="22">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O7" s="23" t="e">
+        <v>4</v>
+      </c>
+      <c r="O7" s="23">
         <f>IF(H7="I",N7*Contagem!$U$11,IF(H7="E",N7*Contagem!$U$13,IF(H7="A",N7*Contagem!$U$12,IF(H7="T",N7*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="P7" s="98"/>
       <c r="Q7" s="98"/>
@@ -13799,16 +13835,16 @@
       <c r="T7" s="98"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
+      <c r="A8" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>37</v>
@@ -13821,23 +13857,23 @@
       </c>
       <c r="K8" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIL</v>
+        <v>EEA</v>
       </c>
       <c r="L8" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M8" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N8" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O8" s="23">
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P8" s="98"/>
       <c r="Q8" s="98"/>
@@ -13846,14 +13882,14 @@
       <c r="T8" s="98"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
+      <c r="A9" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="18" t="s">
         <v>39</v>
       </c>
@@ -13861,30 +13897,30 @@
         <v>37</v>
       </c>
       <c r="I9" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J9" s="18">
         <v>2</v>
       </c>
       <c r="K9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEL</v>
       </c>
       <c r="L9" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M9" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N9" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" s="23">
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9" s="98"/>
       <c r="Q9" s="98"/>
@@ -13893,45 +13929,45 @@
       <c r="T9" s="98"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="A10" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="18">
         <v>2</v>
       </c>
       <c r="K10" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>ALIL</v>
       </c>
       <c r="L10" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M10" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N10" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O10" s="23">
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P10" s="98"/>
       <c r="Q10" s="98"/>
@@ -13940,14 +13976,14 @@
       <c r="T10" s="98"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
+      <c r="A11" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="18" t="s">
         <v>39</v>
       </c>
@@ -13955,30 +13991,30 @@
         <v>37</v>
       </c>
       <c r="I11" s="18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J11" s="18">
         <v>2</v>
       </c>
       <c r="K11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEL</v>
+        <v>EEA</v>
       </c>
       <c r="L11" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M11" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="23">
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" s="98"/>
       <c r="Q11" s="98"/>
@@ -13987,37 +14023,45 @@
       <c r="T11" s="98"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="H12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="18">
+        <v>7</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2</v>
+      </c>
       <c r="K12" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L12" s="20" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N12" s="22" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N12" s="22">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O12" s="23" t="e">
+        <v>4</v>
+      </c>
+      <c r="O12" s="23">
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="P12" s="98"/>
       <c r="Q12" s="98"/>
@@ -14026,16 +14070,16 @@
       <c r="T12" s="98"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
+      <c r="A13" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>37</v>
@@ -14048,23 +14092,23 @@
       </c>
       <c r="K13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIL</v>
+        <v>EEA</v>
       </c>
       <c r="L13" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>A</v>
       </c>
       <c r="M13" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Média</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O13" s="23">
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P13" s="98"/>
       <c r="Q13" s="98"/>
@@ -14073,45 +14117,45 @@
       <c r="T13" s="98"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
+      <c r="A14" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
       <c r="G14" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I14" s="18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J14" s="18">
         <v>2</v>
       </c>
       <c r="K14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>CEL</v>
       </c>
       <c r="L14" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M14" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" s="23">
         <f>IF(H14="I",N14*Contagem!$U$11,IF(H14="E",N14*Contagem!$U$13,IF(H14="A",N14*Contagem!$U$12,IF(H14="T",N14*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" s="98"/>
       <c r="Q14" s="98"/>
@@ -14120,45 +14164,45 @@
       <c r="T14" s="98"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
+      <c r="A15" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I15" s="18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J15" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>ALIL</v>
       </c>
       <c r="L15" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="M15" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Baixa</v>
       </c>
       <c r="N15" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O15" s="23">
         <f>IF(H15="I",N15*Contagem!$U$11,IF(H15="E",N15*Contagem!$U$13,IF(H15="A",N15*Contagem!$U$12,IF(H15="T",N15*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15" s="98"/>
       <c r="Q15" s="98"/>
@@ -14167,14 +14211,14 @@
       <c r="T15" s="98"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
+      <c r="A16" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="18" t="s">
         <v>39</v>
       </c>
@@ -14182,30 +14226,30 @@
         <v>37</v>
       </c>
       <c r="I16" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J16" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>EEH</v>
       </c>
       <c r="L16" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M16" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N16" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O16" s="23">
         <f>IF(H16="I",N16*Contagem!$U$11,IF(H16="E",N16*Contagem!$U$13,IF(H16="A",N16*Contagem!$U$12,IF(H16="T",N16*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P16" s="98"/>
       <c r="Q16" s="98"/>
@@ -14214,45 +14258,45 @@
       <c r="T16" s="98"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="A17" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I17" s="18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J17" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>CEL</v>
+        <v>EEH</v>
       </c>
       <c r="L17" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="M17" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Alta</v>
       </c>
       <c r="N17" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O17" s="23">
         <f>IF(H17="I",N17*Contagem!$U$11,IF(H17="E",N17*Contagem!$U$13,IF(H17="A",N17*Contagem!$U$12,IF(H17="T",N17*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P17" s="98"/>
       <c r="Q17" s="98"/>
@@ -14261,37 +14305,45 @@
       <c r="T17" s="98"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="18"/>
+      <c r="A18" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="H18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>3</v>
+      </c>
       <c r="K18" s="18" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>EEA</v>
       </c>
       <c r="L18" s="20" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>A</v>
       </c>
       <c r="M18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N18" s="22" t="str">
+        <v>Média</v>
+      </c>
+      <c r="N18" s="22">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O18" s="23" t="e">
+        <v>4</v>
+      </c>
+      <c r="O18" s="23">
         <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="P18" s="98"/>
       <c r="Q18" s="98"/>
@@ -14300,29 +14352,29 @@
       <c r="T18" s="98"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="A19" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
       <c r="G19" s="18" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="18">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J19" s="18">
         <v>3</v>
       </c>
       <c r="K19" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIL</v>
+        <v>CEL</v>
       </c>
       <c r="L19" s="20" t="str">
         <f t="shared" si="1"/>
@@ -14334,11 +14386,11 @@
       </c>
       <c r="N19" s="22">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O19" s="23">
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P19" s="98"/>
       <c r="Q19" s="98"/>
@@ -14347,14 +14399,14 @@
       <c r="T19" s="98"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
+      <c r="A20" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="18" t="s">
         <v>39</v>
       </c>
@@ -14362,7 +14414,7 @@
         <v>37</v>
       </c>
       <c r="I20" s="18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J20" s="18">
         <v>3</v>
@@ -14387,21 +14439,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P20" s="98"/>
+      <c r="P20" s="114"/>
       <c r="Q20" s="98"/>
       <c r="R20" s="98"/>
       <c r="S20" s="98"/>
       <c r="T20" s="98"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
+      <c r="A21" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="18" t="s">
         <v>39</v>
       </c>
@@ -14409,61 +14461,61 @@
         <v>37</v>
       </c>
       <c r="I21" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J21" s="18">
         <v>3</v>
       </c>
       <c r="K21" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(G21,L21)</f>
         <v>EEH</v>
       </c>
       <c r="L21" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(ISBLANK(I21),ISBLANK(J21)),IF(OR(G21="ALI",G21="AIE"),"L",IF(ISBLANK(G21),"","A")),IF(G21="EE",IF(J21&gt;=3,IF(I21&gt;=5,"H","A"),IF(J21&gt;=2,IF(I21&gt;=16,"H",IF(I21&lt;=4,"L","A")),IF(I21&lt;=15,"L","A"))),IF(OR(G21="SE",G21="CE"),IF(J21&gt;=4,IF(I21&gt;=6,"H","A"),IF(J21&gt;=2,IF(I21&gt;=20,"H",IF(I21&lt;=5,"L","A")),IF(I21&lt;=19,"L","A"))),IF(OR(G21="ALI",G21="AIE"),IF(J21&gt;=6,IF(I21&gt;=20,"H","A"),IF(J21&gt;=2,IF(I21&gt;=51,"H",IF(I21&lt;=19,"L","A")),IF(I21&lt;=50,"L","A")))))))</f>
         <v>H</v>
       </c>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(L21="L","Baixa",IF(L21="A","Média",IF(L21="","","Alta")))</f>
         <v>Alta</v>
       </c>
       <c r="N21" s="22">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK(G21),"",IF(G21="ALI",IF(L21="L",7,IF(L21="A",10,15)),IF(G21="AIE",IF(L21="L",5,IF(L21="A",7,10)),IF(G21="SE",IF(L21="L",4,IF(L21="A",5,7)),IF(OR(G21="EE",G21="CE"),IF(L21="L",3,IF(L21="A",4,6)))))))</f>
         <v>6</v>
       </c>
       <c r="O21" s="23">
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P21" s="98"/>
+      <c r="P21" s="114"/>
       <c r="Q21" s="98"/>
       <c r="R21" s="98"/>
       <c r="S21" s="98"/>
       <c r="T21" s="98"/>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
+    <row r="22" spans="1:20" ht="18" customHeight="1">
+      <c r="A22" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
       <c r="G22" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I22" s="18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J22" s="18">
         <v>3</v>
       </c>
       <c r="K22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEA</v>
+        <v>ALIA</v>
       </c>
       <c r="L22" s="20" t="str">
         <f t="shared" si="1"/>
@@ -14475,11 +14527,11 @@
       </c>
       <c r="N22" s="22">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O22" s="23">
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P22" s="98"/>
       <c r="Q22" s="98"/>
@@ -14487,46 +14539,46 @@
       <c r="S22" s="98"/>
       <c r="T22" s="98"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
+    <row r="23" spans="1:20" ht="18" customHeight="1">
+      <c r="A23" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I23" s="18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J23" s="18">
         <v>3</v>
       </c>
       <c r="K23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>CEL</v>
+        <v>EEH</v>
       </c>
       <c r="L23" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>L</v>
+        <v>H</v>
       </c>
       <c r="M23" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Baixa</v>
+        <v>Alta</v>
       </c>
       <c r="N23" s="22">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O23" s="23">
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P23" s="98"/>
       <c r="Q23" s="98"/>
@@ -14534,15 +14586,15 @@
       <c r="S23" s="98"/>
       <c r="T23" s="98"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
+    <row r="24" spans="1:20" ht="18" customHeight="1">
+      <c r="A24" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="18" t="s">
         <v>39</v>
       </c>
@@ -14550,7 +14602,7 @@
         <v>37</v>
       </c>
       <c r="I24" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J24" s="18">
         <v>3</v>
@@ -14575,21 +14627,21 @@
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P24" s="104"/>
+      <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
       <c r="R24" s="98"/>
       <c r="S24" s="98"/>
       <c r="T24" s="98"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
+    <row r="25" spans="1:20" ht="18" customHeight="1">
+      <c r="A25" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="18" t="s">
         <v>39</v>
       </c>
@@ -14597,132 +14649,140 @@
         <v>37</v>
       </c>
       <c r="I25" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J25" s="18">
         <v>3</v>
       </c>
       <c r="K25" s="18" t="str">
-        <f>CONCATENATE(G25,L25)</f>
-        <v>EEH</v>
+        <f t="shared" si="0"/>
+        <v>EEA</v>
       </c>
       <c r="L25" s="20" t="str">
-        <f>IF(OR(ISBLANK(I25),ISBLANK(J25)),IF(OR(G25="ALI",G25="AIE"),"L",IF(ISBLANK(G25),"","A")),IF(G25="EE",IF(J25&gt;=3,IF(I25&gt;=5,"H","A"),IF(J25&gt;=2,IF(I25&gt;=16,"H",IF(I25&lt;=4,"L","A")),IF(I25&lt;=15,"L","A"))),IF(OR(G25="SE",G25="CE"),IF(J25&gt;=4,IF(I25&gt;=6,"H","A"),IF(J25&gt;=2,IF(I25&gt;=20,"H",IF(I25&lt;=5,"L","A")),IF(I25&lt;=19,"L","A"))),IF(OR(G25="ALI",G25="AIE"),IF(J25&gt;=6,IF(I25&gt;=20,"H","A"),IF(J25&gt;=2,IF(I25&gt;=51,"H",IF(I25&lt;=19,"L","A")),IF(I25&lt;=50,"L","A")))))))</f>
-        <v>H</v>
+        <f t="shared" si="1"/>
+        <v>A</v>
       </c>
       <c r="M25" s="21" t="str">
-        <f>IF(L25="L","Baixa",IF(L25="A","Média",IF(L25="","","Alta")))</f>
-        <v>Alta</v>
+        <f t="shared" si="2"/>
+        <v>Média</v>
       </c>
       <c r="N25" s="22">
-        <f>IF(ISBLANK(G25),"",IF(G25="ALI",IF(L25="L",7,IF(L25="A",10,15)),IF(G25="AIE",IF(L25="L",5,IF(L25="A",7,10)),IF(G25="SE",IF(L25="L",4,IF(L25="A",5,7)),IF(OR(G25="EE",G25="CE"),IF(L25="L",3,IF(L25="A",4,6)))))))</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O25" s="23">
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P25" s="104"/>
+        <v>4</v>
+      </c>
+      <c r="P25" s="98"/>
       <c r="Q25" s="98"/>
       <c r="R25" s="98"/>
       <c r="S25" s="98"/>
       <c r="T25" s="98"/>
     </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="97"/>
+    <row r="26" spans="1:20">
+      <c r="A26" s="97" t="s">
+        <v>53</v>
+      </c>
       <c r="B26" s="97"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
       <c r="E26" s="97"/>
       <c r="F26" s="97"/>
-      <c r="G26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="18">
+        <v>4</v>
+      </c>
+      <c r="J26" s="18">
+        <v>3</v>
+      </c>
       <c r="K26" s="18" t="str">
-        <f>CONCATENATE(G26,L26)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>CEL</v>
       </c>
       <c r="L26" s="20" t="str">
-        <f>IF(OR(ISBLANK(I26),ISBLANK(J26)),IF(OR(G26="ALI",G26="AIE"),"L",IF(ISBLANK(G26),"","A")),IF(G26="EE",IF(J26&gt;=3,IF(I26&gt;=5,"H","A"),IF(J26&gt;=2,IF(I26&gt;=16,"H",IF(I26&lt;=4,"L","A")),IF(I26&lt;=15,"L","A"))),IF(OR(G26="SE",G26="CE"),IF(J26&gt;=4,IF(I26&gt;=6,"H","A"),IF(J26&gt;=2,IF(I26&gt;=20,"H",IF(I26&lt;=5,"L","A")),IF(I26&lt;=19,"L","A"))),IF(OR(G26="ALI",G26="AIE"),IF(J26&gt;=6,IF(I26&gt;=20,"H","A"),IF(J26&gt;=2,IF(I26&gt;=51,"H",IF(I26&lt;=19,"L","A")),IF(I26&lt;=50,"L","A")))))))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>L</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f>IF(L26="L","Baixa",IF(L26="A","Média",IF(L26="","","Alta")))</f>
-        <v/>
-      </c>
-      <c r="N26" s="22" t="str">
-        <f>IF(ISBLANK(G26),"",IF(G26="ALI",IF(L26="L",7,IF(L26="A",10,15)),IF(G26="AIE",IF(L26="L",5,IF(L26="A",7,10)),IF(G26="SE",IF(L26="L",4,IF(L26="A",5,7)),IF(OR(G26="EE",G26="CE"),IF(L26="L",3,IF(L26="A",4,6)))))))</f>
-        <v/>
-      </c>
-      <c r="O26" s="23" t="e">
+        <f t="shared" si="2"/>
+        <v>Baixa</v>
+      </c>
+      <c r="N26" s="22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O26" s="23">
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P26" s="98"/>
+        <v>3</v>
+      </c>
+      <c r="P26" s="114"/>
       <c r="Q26" s="98"/>
       <c r="R26" s="98"/>
       <c r="S26" s="98"/>
       <c r="T26" s="98"/>
     </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1">
-      <c r="A27" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
+    <row r="27" spans="1:20">
+      <c r="A27" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
       <c r="G27" s="18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I27" s="18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J27" s="18">
         <v>3</v>
       </c>
       <c r="K27" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>ALIA</v>
+        <v>EEH</v>
       </c>
       <c r="L27" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v>H</v>
       </c>
       <c r="M27" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Média</v>
+        <v>Alta</v>
       </c>
       <c r="N27" s="22">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O27" s="23">
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
-        <v>10</v>
-      </c>
-      <c r="P27" s="98"/>
+        <v>6</v>
+      </c>
+      <c r="P27" s="114"/>
       <c r="Q27" s="98"/>
       <c r="R27" s="98"/>
       <c r="S27" s="98"/>
       <c r="T27" s="98"/>
     </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1">
-      <c r="A28" s="113" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
+    <row r="28" spans="1:20">
+      <c r="A28" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
       <c r="G28" s="18" t="s">
         <v>39</v>
       </c>
@@ -14730,93 +14790,93 @@
         <v>37</v>
       </c>
       <c r="I28" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J28" s="18">
         <v>3</v>
       </c>
       <c r="K28" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>EEH</v>
+        <v>EEA</v>
       </c>
       <c r="L28" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>H</v>
+        <v>A</v>
       </c>
       <c r="M28" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>Alta</v>
+        <v>Média</v>
       </c>
       <c r="N28" s="22">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O28" s="23">
         <f>IF(H28="I",N28*Contagem!$U$11,IF(H28="E",N28*Contagem!$U$13,IF(H28="A",N28*Contagem!$U$12,IF(H28="T",N28*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P28" s="98"/>
+        <v>4</v>
+      </c>
+      <c r="P28" s="114"/>
       <c r="Q28" s="98"/>
       <c r="R28" s="98"/>
       <c r="S28" s="98"/>
       <c r="T28" s="98"/>
     </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="A29" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
+    <row r="29" spans="1:20">
+      <c r="A29" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
       <c r="G29" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I29" s="18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J29" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>EEH</v>
+        <f t="shared" ref="K29:K33" si="4">CONCATENATE(G29,L29)</f>
+        <v>ALIL</v>
       </c>
       <c r="L29" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>H</v>
+        <f t="shared" ref="L29:L33" si="5">IF(OR(ISBLANK(I29),ISBLANK(J29)),IF(OR(G29="ALI",G29="AIE"),"L",IF(ISBLANK(G29),"","A")),IF(G29="EE",IF(J29&gt;=3,IF(I29&gt;=5,"H","A"),IF(J29&gt;=2,IF(I29&gt;=16,"H",IF(I29&lt;=4,"L","A")),IF(I29&lt;=15,"L","A"))),IF(OR(G29="SE",G29="CE"),IF(J29&gt;=4,IF(I29&gt;=6,"H","A"),IF(J29&gt;=2,IF(I29&gt;=20,"H",IF(I29&lt;=5,"L","A")),IF(I29&lt;=19,"L","A"))),IF(OR(G29="ALI",G29="AIE"),IF(J29&gt;=6,IF(I29&gt;=20,"H","A"),IF(J29&gt;=2,IF(I29&gt;=51,"H",IF(I29&lt;=19,"L","A")),IF(I29&lt;=50,"L","A")))))))</f>
+        <v>L</v>
       </c>
       <c r="M29" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Alta</v>
+        <f t="shared" ref="M29:M33" si="6">IF(L29="L","Baixa",IF(L29="A","Média",IF(L29="","","Alta")))</f>
+        <v>Baixa</v>
       </c>
       <c r="N29" s="22">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" ref="N29:N33" si="7">IF(ISBLANK(G29),"",IF(G29="ALI",IF(L29="L",7,IF(L29="A",10,15)),IF(G29="AIE",IF(L29="L",5,IF(L29="A",7,10)),IF(G29="SE",IF(L29="L",4,IF(L29="A",5,7)),IF(OR(G29="EE",G29="CE"),IF(L29="L",3,IF(L29="A",4,6)))))))</f>
+        <v>7</v>
       </c>
       <c r="O29" s="23">
         <f>IF(H29="I",N29*Contagem!$U$11,IF(H29="E",N29*Contagem!$U$13,IF(H29="A",N29*Contagem!$U$12,IF(H29="T",N29*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P29" s="98"/>
+        <v>7</v>
+      </c>
+      <c r="P29" s="114"/>
       <c r="Q29" s="98"/>
       <c r="R29" s="98"/>
       <c r="S29" s="98"/>
       <c r="T29" s="98"/>
     </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
+    <row r="30" spans="1:20">
+      <c r="A30" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
       <c r="G30" s="18" t="s">
         <v>39</v>
       </c>
@@ -14824,30 +14884,30 @@
         <v>37</v>
       </c>
       <c r="I30" s="18">
+        <v>3</v>
+      </c>
+      <c r="J30" s="18">
         <v>1</v>
       </c>
-      <c r="J30" s="18">
-        <v>3</v>
-      </c>
       <c r="K30" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>EEA</v>
+        <f t="shared" si="4"/>
+        <v>EEL</v>
       </c>
       <c r="L30" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>A</v>
+        <f t="shared" si="5"/>
+        <v>L</v>
       </c>
       <c r="M30" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Média</v>
+        <f t="shared" si="6"/>
+        <v>Baixa</v>
       </c>
       <c r="N30" s="22">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O30" s="23">
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P30" s="98"/>
       <c r="Q30" s="98"/>
@@ -14856,61 +14916,61 @@
       <c r="T30" s="98"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
+      <c r="A31" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J31" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K31" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>CEL</v>
+        <f t="shared" si="4"/>
+        <v>EEL</v>
       </c>
       <c r="L31" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>L</v>
       </c>
       <c r="M31" s="21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>Baixa</v>
       </c>
       <c r="N31" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="O31" s="23">
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P31" s="104"/>
+      <c r="P31" s="98"/>
       <c r="Q31" s="98"/>
       <c r="R31" s="98"/>
       <c r="S31" s="98"/>
       <c r="T31" s="98"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
+      <c r="A32" s="112" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
       <c r="G32" s="18" t="s">
         <v>39</v>
       </c>
@@ -14918,91 +14978,93 @@
         <v>37</v>
       </c>
       <c r="I32" s="18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J32" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>EEH</v>
+        <f t="shared" si="4"/>
+        <v>EEL</v>
       </c>
       <c r="L32" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>H</v>
+        <f t="shared" si="5"/>
+        <v>L</v>
       </c>
       <c r="M32" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Alta</v>
+        <f t="shared" si="6"/>
+        <v>Baixa</v>
       </c>
       <c r="N32" s="22">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O32" s="23">
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
-        <v>6</v>
-      </c>
-      <c r="P32" s="104"/>
+        <v>3</v>
+      </c>
+      <c r="P32" s="98"/>
       <c r="Q32" s="98"/>
       <c r="R32" s="98"/>
       <c r="S32" s="98"/>
       <c r="T32" s="98"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
+      <c r="A33" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
       <c r="G33" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>37</v>
       </c>
       <c r="I33" s="18">
+        <v>2</v>
+      </c>
+      <c r="J33" s="18">
         <v>1</v>
       </c>
-      <c r="J33" s="18">
-        <v>3</v>
-      </c>
       <c r="K33" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>EEA</v>
+        <f t="shared" si="4"/>
+        <v>CEL</v>
       </c>
       <c r="L33" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>A</v>
+        <f t="shared" si="5"/>
+        <v>L</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Média</v>
+        <f t="shared" si="6"/>
+        <v>Baixa</v>
       </c>
       <c r="N33" s="22">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="O33" s="23">
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
-        <v>4</v>
-      </c>
-      <c r="P33" s="104"/>
+        <v>3</v>
+      </c>
+      <c r="P33" s="98"/>
       <c r="Q33" s="98"/>
       <c r="R33" s="98"/>
       <c r="S33" s="98"/>
       <c r="T33" s="98"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
+      <c r="A34" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
       <c r="I34" s="18"/>
@@ -15010,102 +15072,55 @@
       <c r="K34" s="18"/>
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="22"/>
+      <c r="N34" s="162">
+        <f>SUM(N1:N33)</f>
+        <v>155</v>
+      </c>
       <c r="O34" s="23"/>
-      <c r="P34" s="104"/>
+      <c r="P34" s="98"/>
       <c r="Q34" s="98"/>
       <c r="R34" s="98"/>
       <c r="S34" s="98"/>
       <c r="T34" s="98"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="18">
-        <v>3</v>
-      </c>
-      <c r="J35" s="18">
-        <v>1</v>
-      </c>
-      <c r="K35" s="18" t="str">
-        <f t="shared" ref="K35:K39" si="4">CONCATENATE(G35,L35)</f>
-        <v>ALIL</v>
-      </c>
-      <c r="L35" s="20" t="str">
-        <f t="shared" ref="L35:L39" si="5">IF(OR(ISBLANK(I35),ISBLANK(J35)),IF(OR(G35="ALI",G35="AIE"),"L",IF(ISBLANK(G35),"","A")),IF(G35="EE",IF(J35&gt;=3,IF(I35&gt;=5,"H","A"),IF(J35&gt;=2,IF(I35&gt;=16,"H",IF(I35&lt;=4,"L","A")),IF(I35&lt;=15,"L","A"))),IF(OR(G35="SE",G35="CE"),IF(J35&gt;=4,IF(I35&gt;=6,"H","A"),IF(J35&gt;=2,IF(I35&gt;=20,"H",IF(I35&lt;=5,"L","A")),IF(I35&lt;=19,"L","A"))),IF(OR(G35="ALI",G35="AIE"),IF(J35&gt;=6,IF(I35&gt;=20,"H","A"),IF(J35&gt;=2,IF(I35&gt;=51,"H",IF(I35&lt;=19,"L","A")),IF(I35&lt;=50,"L","A")))))))</f>
-        <v>L</v>
-      </c>
-      <c r="M35" s="21" t="str">
-        <f t="shared" ref="M35:M39" si="6">IF(L35="L","Baixa",IF(L35="A","Média",IF(L35="","","Alta")))</f>
-        <v>Baixa</v>
-      </c>
-      <c r="N35" s="22">
-        <f t="shared" ref="N35:N39" si="7">IF(ISBLANK(G35),"",IF(G35="ALI",IF(L35="L",7,IF(L35="A",10,15)),IF(G35="AIE",IF(L35="L",5,IF(L35="A",7,10)),IF(G35="SE",IF(L35="L",4,IF(L35="A",5,7)),IF(OR(G35="EE",G35="CE"),IF(L35="L",3,IF(L35="A",4,6)))))))</f>
-        <v>7</v>
-      </c>
-      <c r="O35" s="23">
-        <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
-        <v>7</v>
-      </c>
-      <c r="P35" s="104"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="98"/>
       <c r="Q35" s="98"/>
       <c r="R35" s="98"/>
       <c r="S35" s="98"/>
       <c r="T35" s="98"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="18">
-        <v>3</v>
-      </c>
-      <c r="J36" s="18">
-        <v>1</v>
-      </c>
-      <c r="K36" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>EEL</v>
-      </c>
-      <c r="L36" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>L</v>
-      </c>
-      <c r="M36" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N36" s="22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O36" s="23">
-        <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="23"/>
       <c r="P36" s="98"/>
       <c r="Q36" s="98"/>
       <c r="R36" s="98"/>
@@ -15113,46 +15128,21 @@
       <c r="T36" s="98"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="18">
-        <v>3</v>
-      </c>
-      <c r="J37" s="18">
-        <v>1</v>
-      </c>
-      <c r="K37" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>EEL</v>
-      </c>
-      <c r="L37" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>L</v>
-      </c>
-      <c r="M37" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N37" s="22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O37" s="23">
-        <f>IF(H37="I",N37*Contagem!$U$11,IF(H37="E",N37*Contagem!$U$13,IF(H37="A",N37*Contagem!$U$12,IF(H37="T",N37*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="98"/>
       <c r="Q37" s="98"/>
       <c r="R37" s="98"/>
@@ -15160,46 +15150,21 @@
       <c r="T37" s="98"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="18">
-        <v>1</v>
-      </c>
-      <c r="J38" s="18">
-        <v>1</v>
-      </c>
-      <c r="K38" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>EEL</v>
-      </c>
-      <c r="L38" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>L</v>
-      </c>
-      <c r="M38" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N38" s="22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O38" s="23">
-        <f>IF(H38="I",N38*Contagem!$U$11,IF(H38="E",N38*Contagem!$U$13,IF(H38="A",N38*Contagem!$U$12,IF(H38="T",N38*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
       <c r="P38" s="98"/>
       <c r="Q38" s="98"/>
       <c r="R38" s="98"/>
@@ -15207,46 +15172,21 @@
       <c r="T38" s="98"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="18">
-        <v>2</v>
-      </c>
-      <c r="J39" s="18">
-        <v>1</v>
-      </c>
-      <c r="K39" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>CEL</v>
-      </c>
-      <c r="L39" s="20" t="str">
-        <f t="shared" si="5"/>
-        <v>L</v>
-      </c>
-      <c r="M39" s="21" t="str">
-        <f t="shared" si="6"/>
-        <v>Baixa</v>
-      </c>
-      <c r="N39" s="22">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="O39" s="23">
-        <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
-        <v>3</v>
-      </c>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="23"/>
       <c r="P39" s="98"/>
       <c r="Q39" s="98"/>
       <c r="R39" s="98"/>
@@ -15254,12 +15194,12 @@
       <c r="T39" s="98"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="109"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
       <c r="I40" s="18"/>
@@ -15267,10 +15207,7 @@
       <c r="K40" s="18"/>
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="22">
-        <f>SUM(N1:N39)</f>
-        <v>155</v>
-      </c>
+      <c r="N40" s="22"/>
       <c r="O40" s="23"/>
       <c r="P40" s="98"/>
       <c r="Q40" s="98"/>
@@ -15279,227 +15216,18 @@
       <c r="T40" s="98"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="98"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="98"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="109"/>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="98"/>
-      <c r="Q42" s="98"/>
-      <c r="R42" s="98"/>
-      <c r="S42" s="98"/>
-      <c r="T42" s="98"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="98"/>
-      <c r="Q43" s="98"/>
-      <c r="R43" s="98"/>
-      <c r="S43" s="98"/>
-      <c r="T43" s="98"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="97"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="98"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="98"/>
-      <c r="S44" s="98"/>
-      <c r="T44" s="98"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="97"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="98"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="98"/>
-      <c r="T45" s="98"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="97"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="98"/>
-      <c r="Q46" s="98"/>
-      <c r="R46" s="98"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="98"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="P47" s="129"/>
-      <c r="Q47" s="129"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="129"/>
-      <c r="T47" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="P22:T22"/>
+  <mergeCells count="81">
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="P23:T23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="P24:T24"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="P29:T29"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="A2:F2"/>
@@ -15512,108 +15240,173 @@
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="P39:T39"/>
   </mergeCells>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
+  <conditionalFormatting sqref="H35">
     <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H34">
     <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H28">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H28">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H28">
     <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"E"</formula>
     </cfRule>
@@ -15627,8 +15420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -15638,14 +15431,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
       <c r="G1" s="63" t="s">
         <v>27</v>
       </c>
@@ -15675,14 +15468,14 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.4">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
       <c r="G2" s="60" t="s">
         <v>36</v>
       </c>
@@ -15716,14 +15509,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
       <c r="G3" s="60" t="s">
         <v>39</v>
       </c>
@@ -15758,14 +15551,14 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="60" t="s">
         <v>39</v>
       </c>
@@ -15800,14 +15593,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.4">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="60" t="s">
         <v>39</v>
       </c>
@@ -15842,14 +15635,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.4">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="60" t="s">
         <v>44</v>
       </c>
@@ -15884,21 +15677,21 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
       <c r="N7" s="77">
         <f>SUM(N2:N6)</f>
         <v>29</v>
@@ -15909,14 +15702,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.4">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="136"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
       <c r="G8" s="69" t="s">
         <v>27</v>
       </c>
@@ -15946,14 +15739,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.4">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
       <c r="G9" s="60" t="s">
         <v>36</v>
       </c>
@@ -15988,14 +15781,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.4">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="148"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="60" t="s">
         <v>39</v>
       </c>
@@ -16030,14 +15823,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.4">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="148"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="141"/>
       <c r="G11" s="60" t="s">
         <v>39</v>
       </c>
@@ -16072,14 +15865,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.4">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="148"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="141"/>
       <c r="G12" s="60" t="s">
         <v>39</v>
       </c>
@@ -16114,14 +15907,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.4">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="148"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="141"/>
       <c r="G13" s="60" t="s">
         <v>44</v>
       </c>
@@ -16156,21 +15949,21 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.4">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="139"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="147"/>
       <c r="N14" s="79">
         <f>SUM(N9:N13)</f>
         <v>21</v>
@@ -16181,14 +15974,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.4">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="69" t="s">
         <v>27</v>
       </c>
@@ -16218,14 +16011,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.4">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
       <c r="G16" s="60" t="s">
         <v>36</v>
       </c>
@@ -16260,14 +16053,14 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.4">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
       <c r="G17" s="60" t="s">
         <v>39</v>
       </c>
@@ -16302,14 +16095,14 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.4">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="60" t="s">
         <v>39</v>
       </c>
@@ -16344,14 +16137,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.4">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
       <c r="G19" s="60" t="s">
         <v>39</v>
       </c>
@@ -16386,14 +16179,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.4">
-      <c r="A20" s="130" t="s">
+      <c r="A20" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
       <c r="G20" s="60" t="s">
         <v>44</v>
       </c>
@@ -16453,14 +16246,14 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.4">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
       <c r="G22" s="69" t="s">
         <v>27</v>
       </c>
@@ -16490,14 +16283,14 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.4">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
       <c r="G23" s="60" t="s">
         <v>36</v>
       </c>
@@ -16532,14 +16325,14 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.4">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="60" t="s">
         <v>39</v>
       </c>
@@ -16574,14 +16367,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.4">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
       <c r="G25" s="60" t="s">
         <v>39</v>
       </c>
@@ -16616,14 +16409,14 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.4">
-      <c r="A26" s="130" t="s">
+      <c r="A26" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="60" t="s">
         <v>39</v>
       </c>
@@ -16658,14 +16451,14 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.4">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
       <c r="G27" s="60" t="s">
         <v>44</v>
       </c>
@@ -16769,6 +16562,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A30:M30"/>
     <mergeCell ref="A29:M29"/>
@@ -16785,20 +16592,6 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A21:M21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -16846,88 +16639,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="156"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="156"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="157" t="str">
+      <c r="A4" s="150" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="158" t="str">
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="151" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="159" t="str">
+      <c r="A5" s="152" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="158" t="str">
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="151" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="29" t="str">
@@ -16938,58 +16731,58 @@
       <c r="C6" s="30"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="150" t="str">
+      <c r="F6" s="153" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150" t="str">
+      <c r="G6" s="153"/>
+      <c r="H6" s="153" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 175.200,00</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151" t="str">
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="154" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 438</v>
       </c>
-      <c r="L6" s="151"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="153" t="s">
+      <c r="B7" s="155"/>
+      <c r="C7" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154" t="s">
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155" t="s">
+      <c r="H7" s="157"/>
+      <c r="I7" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="158"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="32"/>
@@ -17885,11 +17678,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="35"/>
-      <c r="B55" s="149" t="s">
+      <c r="B55" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="49">
         <f>SUMIF(Funções!$H$8:$H$122,"I",Funções!$N$8:$N$122)</f>
         <v>438</v>
@@ -17912,11 +17705,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="35"/>
-      <c r="B56" s="149" t="s">
+      <c r="B56" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="149"/>
-      <c r="D56" s="149"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="159"/>
       <c r="E56" s="49">
         <f>SUMIF(Funções!$H$8:$H$122,"A",Funções!$N$8:$N$122)</f>
         <v>0</v>
@@ -17940,11 +17733,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="35"/>
-      <c r="B57" s="149" t="s">
+      <c r="B57" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="149"/>
-      <c r="D57" s="149"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
       <c r="E57" s="49">
         <f>SUMIF(Funções!$H$8:$H$122,"E",Funções!$N$8:$N$122)</f>
         <v>0</v>
@@ -17965,11 +17758,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="35"/>
-      <c r="B58" s="149" t="s">
+      <c r="B58" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
       <c r="E58" s="49">
         <f>SUMIF(Funções!$H$8:$H$122,"T",Funções!$N$8:$N$122)</f>
         <v>0</v>
@@ -18004,11 +17797,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="A7:B8"/>
@@ -18017,11 +17810,11 @@
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:L5"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
